--- a/00 - Documents/3_PASCHE_Journal_2023.xlsx
+++ b/00 - Documents/3_PASCHE_Journal_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FutnetSingleMaster\00 - Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C089CA38-705D-4683-B4EE-BA8F6F86F25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087DA7D8-BB2C-41CD-ACCC-208CF931B9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="8" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Journal!$A$5:$HI$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Journal!$B:$D,Journal!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$D$83</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$D$77</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -69,9 +69,6 @@
     </r>
   </si>
   <si>
-    <t>[no candidat]</t>
-  </si>
-  <si>
     <t>Total général &gt;</t>
   </si>
   <si>
@@ -117,6 +114,21 @@
   <si>
     <t>Solution</t>
   </si>
+  <si>
+    <t>Début : 7h30</t>
+  </si>
+  <si>
+    <t>Création du planning</t>
+  </si>
+  <si>
+    <t>Création du journal de travail</t>
+  </si>
+  <si>
+    <t>Diagramme Use Case</t>
+  </si>
+  <si>
+    <t>Diagramme de séquence</t>
+  </si>
 </sst>
 </file>
 
@@ -126,7 +138,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -193,6 +205,10 @@
       <color theme="6"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="11">
@@ -462,7 +478,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -499,6 +515,68 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -535,6 +613,10 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -547,111 +629,53 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1288,10 +1312,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H84"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1299,648 +1323,728 @@
     <col min="1" max="1" width="11.5703125" style="1"/>
     <col min="2" max="3" width="31.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="1" customWidth="1"/>
-    <col min="7" max="217" width="9.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" style="1" customWidth="1"/>
+    <col min="6" max="217" width="9.140625" style="1" customWidth="1"/>
     <col min="218" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="18"/>
+      <c r="G1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="13"/>
+    </row>
+    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="41" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="10">
+        <v>145341</v>
+      </c>
+      <c r="E2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="46"/>
-      <c r="G1" s="39" t="s">
+      <c r="F2" s="20"/>
+      <c r="G2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="39"/>
-    </row>
-    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="H2" s="14"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E3" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="22"/>
+      <c r="G3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="15"/>
+    </row>
+    <row r="4" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="43"/>
+      <c r="D4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="24"/>
+      <c r="G4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="16"/>
+    </row>
+    <row r="5" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="26"/>
+    </row>
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="50">
+        <v>45068</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="47"/>
+      <c r="D6" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="29"/>
+      <c r="B7" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="29"/>
+      <c r="B8" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="29"/>
+      <c r="B9" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="29"/>
+      <c r="B10" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="29"/>
+      <c r="B11" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="36" t="s">
+      <c r="C11" s="52"/>
+      <c r="D11" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="29"/>
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="6">
+        <f>SUM(D6:D11)</f>
         <v>7</v>
       </c>
-      <c r="E2" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="47"/>
-      <c r="G2" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="40"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E3" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="48"/>
-      <c r="G3" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="34"/>
-    </row>
-    <row r="4" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="35"/>
-    </row>
-    <row r="5" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="50"/>
-    </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="23"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="2" t="s">
+    </row>
+    <row r="13" spans="1:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="29"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="36"/>
+    </row>
+    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="50">
+        <v>45069</v>
+      </c>
+      <c r="B14" s="30"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="29"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="29"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="29"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="29"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="29"/>
+      <c r="B19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="6">
-        <f>SUM(D6:D10)</f>
+      <c r="D19" s="6">
+        <f>SUM(D14:D18)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
-    </row>
-    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
-      <c r="B18" s="2" t="s">
+    <row r="20" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="29"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="36"/>
+    </row>
+    <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="50">
+        <v>45070</v>
+      </c>
+      <c r="B21" s="30"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="29"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="29"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="29"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="29"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="29"/>
+      <c r="B26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="6">
-        <f>SUM(D13:D17)</f>
+      <c r="D26" s="6">
+        <f>SUM(D21:D25)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="18"/>
-    </row>
-    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="10"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="11"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="5"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="11"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
-      <c r="B25" s="2" t="s">
+    <row r="27" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="29"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="36"/>
+    </row>
+    <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="50">
+        <v>45071</v>
+      </c>
+      <c r="B28" s="30"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="29"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="29"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="29"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="29"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="29"/>
+      <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="6">
-        <f>SUM(D20:D24)</f>
+      <c r="D33" s="6">
+        <f>SUM(D28:D32)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="11"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="18"/>
-    </row>
-    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="10"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="11"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="5"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="11"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="11"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="5"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="11"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="5"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="11"/>
-      <c r="B32" s="2" t="s">
+    <row r="34" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="29"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="40"/>
+    </row>
+    <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="50">
+        <v>45072</v>
+      </c>
+      <c r="B35" s="30"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="29"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="29"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="29"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="29"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="29"/>
+      <c r="B40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="6">
-        <f>SUM(D27:D31)</f>
+      <c r="D40" s="6">
+        <f>SUM(D35:D39)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="22"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="21"/>
-    </row>
-    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="10"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="11"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="5"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="11"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="5"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="11"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="5"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="11"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="5"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="11"/>
-      <c r="B39" s="2" t="s">
+    <row r="41" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="29"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="40"/>
+    </row>
+    <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="28">
+        <v>45076</v>
+      </c>
+      <c r="B42" s="30"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="29"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="5"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="29"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="29"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="5"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="29"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="29"/>
+      <c r="B47" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="6">
-        <f>SUM(D34:D38)</f>
+      <c r="D47" s="6">
+        <f>SUM(D42:D46)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="22"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="21"/>
-    </row>
-    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="10"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="11"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="5"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="11"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="5"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="11"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="5"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="11"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="5"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="11"/>
-      <c r="B46" s="2" t="s">
+    <row r="48" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="37"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="40"/>
+    </row>
+    <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="28">
+        <v>45077</v>
+      </c>
+      <c r="B49" s="30"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="4"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="29"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="5"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="29"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="5"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="29"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="5"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="29"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="5"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="29"/>
+      <c r="B54" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D46" s="6">
-        <f>SUM(D41:D45)</f>
+      <c r="D54" s="6">
+        <f>SUM(D49:D53)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="22"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="21"/>
-    </row>
-    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="10"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="4"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="11"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="5"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="11"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="5"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="11"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="5"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="11"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="5"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="11"/>
-      <c r="B53" s="2" t="s">
+    <row r="55" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="37"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="40"/>
+    </row>
+    <row r="56" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="28">
+        <v>45078</v>
+      </c>
+      <c r="B56" s="30"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="4"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="29"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="5"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="29"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="5"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="29"/>
+      <c r="B59" s="32"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="5"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="29"/>
+      <c r="B60" s="32"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="5"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="29"/>
+      <c r="B61" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C61" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D53" s="6">
-        <f>SUM(D48:D52)</f>
+      <c r="D61" s="6">
+        <f>SUM(D56:D60)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="22"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="21"/>
-    </row>
-    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="10"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="4"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="11"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="5"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="11"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="5"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="11"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="5"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="11"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="5"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="11"/>
-      <c r="B60" s="2" t="s">
+    <row r="62" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="37"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="40"/>
+    </row>
+    <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="28">
+        <v>45079</v>
+      </c>
+      <c r="B63" s="30"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="4"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="29"/>
+      <c r="B64" s="32"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="5"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="29"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="5"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="29"/>
+      <c r="B66" s="32"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="5"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="29"/>
+      <c r="B67" s="32"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="5"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="29"/>
+      <c r="B68" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C68" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D60" s="6">
-        <f>SUM(D55:D59)</f>
+      <c r="D68" s="6">
+        <f>SUM(D63:D67)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="22"/>
-      <c r="B61" s="19"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="21"/>
-    </row>
-    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="10"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="4"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="11"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="5"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="11"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="5"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="11"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="5"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="11"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="5"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="11"/>
-      <c r="B67" s="2" t="s">
+    <row r="69" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="37"/>
+      <c r="B69" s="34"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="36"/>
+    </row>
+    <row r="70" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="28">
+        <v>45082</v>
+      </c>
+      <c r="B70" s="30"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="4"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="29"/>
+      <c r="B71" s="32"/>
+      <c r="C71" s="33"/>
+      <c r="D71" s="5"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="29"/>
+      <c r="B72" s="32"/>
+      <c r="C72" s="33"/>
+      <c r="D72" s="5"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="29"/>
+      <c r="B73" s="32"/>
+      <c r="C73" s="33"/>
+      <c r="D73" s="5"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="29"/>
+      <c r="B74" s="32"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="5"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="29"/>
+      <c r="B75" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C75" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D67" s="6">
-        <f>SUM(D62:D66)</f>
+      <c r="D75" s="6">
+        <f>SUM(D70:D74)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="11"/>
-      <c r="B68" s="16"/>
-      <c r="C68" s="17"/>
-      <c r="D68" s="18"/>
-    </row>
-    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="10"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="4"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="11"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="5"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="11"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="5"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="11"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="5"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="11"/>
-      <c r="B73" s="14"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="5"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="11"/>
-      <c r="B74" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D74" s="6">
-        <f>SUM(D69:D73)</f>
+    <row r="76" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="37"/>
+      <c r="B76" s="38"/>
+      <c r="C76" s="39"/>
+      <c r="D76" s="40"/>
+    </row>
+    <row r="77" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="8"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" s="9" t="e">
+        <f>D12+D19+D26+D33+D40+D47+D54+D61+D68+D75+#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="27" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="22"/>
-      <c r="B75" s="19"/>
-      <c r="C75" s="20"/>
-      <c r="D75" s="21"/>
-    </row>
-    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="10"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="4"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="11"/>
-      <c r="B77" s="14"/>
-      <c r="C77" s="15"/>
-      <c r="D77" s="5"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="11"/>
-      <c r="B78" s="14"/>
-      <c r="C78" s="15"/>
-      <c r="D78" s="5"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="11"/>
-      <c r="B79" s="14"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="5"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="11"/>
-      <c r="B80" s="14"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="5"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="11"/>
-      <c r="B81" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D81" s="6">
-        <f>SUM(D76:D80)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="22"/>
-      <c r="B82" s="19"/>
-      <c r="C82" s="20"/>
-      <c r="D82" s="21"/>
-    </row>
-    <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="8"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D83" s="9">
-        <f>D11+D18+D25+D32+D39+D46+D53+D60+D67+D74+D81</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B84" s="33"/>
-      <c r="C84" s="33"/>
-      <c r="D84" s="33"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="91">
+  <mergeCells count="85">
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="A49:A55"/>
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="A63:A69"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="A42:A48"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="A28:A34"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B34:D34"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G3:H3"/>
@@ -1949,91 +2053,9 @@
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
   </mergeCells>
-  <conditionalFormatting sqref="D6:D11">
+  <phoneticPr fontId="12" type="noConversion"/>
+  <conditionalFormatting sqref="D6:D12">
     <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D6)))</formula>
     </cfRule>
@@ -2041,92 +2063,84 @@
       <formula>NOT(ISERROR(SEARCH("En cours",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13:D18">
+  <conditionalFormatting sqref="D14:D19">
     <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D13)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D14)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D13)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D14)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:D32">
+  <conditionalFormatting sqref="D28:D33">
     <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D27)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D28)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="18" priority="20" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D27)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D28)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:D39">
+  <conditionalFormatting sqref="D35:D40">
     <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D34)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D35)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D34)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D35)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D62:D67">
+  <conditionalFormatting sqref="D63:D68">
     <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D62)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D63)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D62)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D63)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D69:D74">
+  <conditionalFormatting sqref="D70:D75">
     <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D69)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D70)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D69)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D70)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D76:D81">
-    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D76)))</formula>
+  <conditionalFormatting sqref="D42:D47">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D76)))</formula>
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D42)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41:D46">
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D41)))</formula>
+  <conditionalFormatting sqref="D49:D54">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D41)))</formula>
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D49)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D53">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D48)))</formula>
+  <conditionalFormatting sqref="D56:D61">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D48)))</formula>
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D56)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D55:D60">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D55)))</formula>
+  <conditionalFormatting sqref="D21:D26">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D55)))</formula>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D21)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20:D25">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D83">
+  <conditionalFormatting sqref="D77">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D83)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D77)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D83)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D77)))</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
@@ -2138,8 +2152,8 @@
     <oddFooter>&amp;L&amp;8&amp;F&amp;R&amp;8Page &amp;P/&amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="47" max="16383" man="1"/>
-    <brk id="83" max="3" man="1"/>
+    <brk id="48" max="16383" man="1"/>
+    <brk id="77" max="3" man="1"/>
   </rowBreaks>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>

--- a/00 - Documents/3_PASCHE_Journal_2023.xlsx
+++ b/00 - Documents/3_PASCHE_Journal_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FutnetSingleMaster\00 - Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087DA7D8-BB2C-41CD-ACCC-208CF931B9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDD842F-72AE-49E9-A470-ADD87F3362D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Journal!$A$5:$HI$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Journal!$B:$D,Journal!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$D$77</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$D$78</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>Diagramme de séquence</t>
+  </si>
+  <si>
+    <t>Préparation a la revue de projet</t>
   </si>
 </sst>
 </file>
@@ -273,7 +276,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -360,17 +363,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -406,17 +398,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -478,16 +459,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -515,15 +496,103 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -539,171 +608,45 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <font>
         <strike val="0"/>
@@ -1312,10 +1255,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1329,89 +1272,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="17" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="13" t="s">
+      <c r="F1" s="40"/>
+      <c r="G1" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="13"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="33"/>
       <c r="D2" s="10">
         <v>145341</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="14" t="s">
+      <c r="F2" s="42"/>
+      <c r="G2" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="14"/>
+      <c r="H2" s="36"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="15" t="s">
+      <c r="F3" s="44"/>
+      <c r="G3" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="15"/>
+      <c r="H3" s="37"/>
     </row>
     <row r="4" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="43"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="16" t="s">
+      <c r="F4" s="46"/>
+      <c r="G4" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="16"/>
+      <c r="H4" s="38"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="45"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="31"/>
       <c r="D5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="26"/>
+      <c r="F5" s="48"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="50">
+      <c r="A6" s="13">
         <v>45068</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="47"/>
+      <c r="C6" s="46"/>
       <c r="D6" s="4">
         <v>0.5</v>
       </c>
@@ -1420,600 +1363,590 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="29"/>
-      <c r="B7" s="32" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="33"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="29"/>
-      <c r="B8" s="32" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="33"/>
+      <c r="C8" s="44"/>
       <c r="D8" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="29"/>
-      <c r="B9" s="32" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="33"/>
+      <c r="C9" s="46"/>
       <c r="D9" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="29"/>
-      <c r="B10" s="32" t="s">
+      <c r="A10" s="14"/>
+      <c r="B10" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="33"/>
+      <c r="C10" s="46"/>
       <c r="D10" s="5">
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="29"/>
-      <c r="B11" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="52"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="40"/>
       <c r="D11" s="5">
         <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="29"/>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="40"/>
+      <c r="D12" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="14"/>
+      <c r="B13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="6">
-        <f>SUM(D6:D11)</f>
+      <c r="D13" s="6">
+        <f>SUM(D6:D12)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+    </row>
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="13">
+        <v>45069</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="14"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="14"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="14"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="14"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="14"/>
+      <c r="B20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="6">
+        <f>SUM(D15:D19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="21"/>
+    </row>
+    <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="13">
+        <v>45070</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="14"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="14"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="14"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="14"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="14"/>
+      <c r="B27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="6">
+        <f>SUM(D22:D26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="21"/>
+    </row>
+    <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="13">
+        <v>45071</v>
+      </c>
+      <c r="B29" s="15"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="14"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="14"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="14"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="14"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="14"/>
+      <c r="B34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="6">
+        <f>SUM(D29:D33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="24"/>
+    </row>
+    <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="13">
+        <v>45072</v>
+      </c>
+      <c r="B36" s="15"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="14"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="14"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="14"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="14"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="14"/>
+      <c r="B41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="6">
+        <f>SUM(D36:D40)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="14"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="24"/>
+    </row>
+    <row r="43" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="25">
+        <v>45076</v>
+      </c>
+      <c r="B43" s="15"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="14"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="14"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="5"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="14"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="14"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="5"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="14"/>
+      <c r="B48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="6">
+        <f>SUM(D43:D47)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="26"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="24"/>
+    </row>
+    <row r="50" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="25">
+        <v>45077</v>
+      </c>
+      <c r="B50" s="15"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="4"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="14"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="5"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="14"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="5"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="14"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="5"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="14"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="5"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="14"/>
+      <c r="B55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="6">
+        <f>SUM(D50:D54)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="26"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="24"/>
+    </row>
+    <row r="57" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="25">
+        <v>45078</v>
+      </c>
+      <c r="B57" s="15"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="4"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="14"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="5"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="14"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="5"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="14"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="5"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="14"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="5"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="14"/>
+      <c r="B62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="6">
+        <f>SUM(D57:D61)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="26"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="24"/>
+    </row>
+    <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="25">
+        <v>45079</v>
+      </c>
+      <c r="B64" s="15"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="4"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="14"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="5"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="14"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="5"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="14"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="5"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="14"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="5"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="14"/>
+      <c r="B69" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="6">
+        <f>SUM(D64:D68)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="26"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="21"/>
+    </row>
+    <row r="71" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="25">
+        <v>45082</v>
+      </c>
+      <c r="B71" s="15"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="4"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="14"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="5"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="14"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="5"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="14"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="5"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="14"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="5"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="14"/>
+      <c r="B76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" s="6">
+        <f>SUM(D71:D75)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="26"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="24"/>
+    </row>
+    <row r="78" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="8"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36"/>
-    </row>
-    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="50">
-        <v>45069</v>
-      </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="29"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="29"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="29"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="29"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="29"/>
-      <c r="B19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="6">
-        <f>SUM(D14:D18)</f>
+      <c r="D78" s="9" t="e">
+        <f>D13+D20+D27+D34+D41+D48+D55+D62+D69+D76+#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="34" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="36"/>
-    </row>
-    <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="50">
-        <v>45070</v>
-      </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="29"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="29"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="5"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="29"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="29"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="5"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="29"/>
-      <c r="B26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="6">
-        <f>SUM(D21:D25)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="36"/>
-    </row>
-    <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="50">
-        <v>45071</v>
-      </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="29"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="29"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="5"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="29"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="5"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="29"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="5"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="29"/>
-      <c r="B33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="6">
-        <f>SUM(D28:D32)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="29"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="40"/>
-    </row>
-    <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="50">
-        <v>45072</v>
-      </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="29"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="5"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="29"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="5"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="29"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="5"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="29"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="5"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="29"/>
-      <c r="B40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="6">
-        <f>SUM(D35:D39)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="29"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="40"/>
-    </row>
-    <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="28">
-        <v>45076</v>
-      </c>
-      <c r="B42" s="30"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="29"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="5"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="29"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="5"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="29"/>
-      <c r="B45" s="32"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="5"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="29"/>
-      <c r="B46" s="32"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="5"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="29"/>
-      <c r="B47" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" s="6">
-        <f>SUM(D42:D46)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="37"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="40"/>
-    </row>
-    <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="28">
-        <v>45077</v>
-      </c>
-      <c r="B49" s="30"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="4"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="29"/>
-      <c r="B50" s="32"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="5"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="29"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="5"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="29"/>
-      <c r="B52" s="32"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="5"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="29"/>
-      <c r="B53" s="32"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="5"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="29"/>
-      <c r="B54" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D54" s="6">
-        <f>SUM(D49:D53)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="37"/>
-      <c r="B55" s="38"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="40"/>
-    </row>
-    <row r="56" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="28">
-        <v>45078</v>
-      </c>
-      <c r="B56" s="30"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="4"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="29"/>
-      <c r="B57" s="32"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="5"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="29"/>
-      <c r="B58" s="32"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="5"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="29"/>
-      <c r="B59" s="32"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="5"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="29"/>
-      <c r="B60" s="32"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="5"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="29"/>
-      <c r="B61" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" s="6">
-        <f>SUM(D56:D60)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="37"/>
-      <c r="B62" s="38"/>
-      <c r="C62" s="39"/>
-      <c r="D62" s="40"/>
-    </row>
-    <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="28">
-        <v>45079</v>
-      </c>
-      <c r="B63" s="30"/>
-      <c r="C63" s="31"/>
-      <c r="D63" s="4"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="29"/>
-      <c r="B64" s="32"/>
-      <c r="C64" s="33"/>
-      <c r="D64" s="5"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="29"/>
-      <c r="B65" s="32"/>
-      <c r="C65" s="33"/>
-      <c r="D65" s="5"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="29"/>
-      <c r="B66" s="32"/>
-      <c r="C66" s="33"/>
-      <c r="D66" s="5"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="29"/>
-      <c r="B67" s="32"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="5"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="29"/>
-      <c r="B68" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D68" s="6">
-        <f>SUM(D63:D67)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="37"/>
-      <c r="B69" s="34"/>
-      <c r="C69" s="35"/>
-      <c r="D69" s="36"/>
-    </row>
-    <row r="70" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="28">
-        <v>45082</v>
-      </c>
-      <c r="B70" s="30"/>
-      <c r="C70" s="31"/>
-      <c r="D70" s="4"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="29"/>
-      <c r="B71" s="32"/>
-      <c r="C71" s="33"/>
-      <c r="D71" s="5"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="29"/>
-      <c r="B72" s="32"/>
-      <c r="C72" s="33"/>
-      <c r="D72" s="5"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="29"/>
-      <c r="B73" s="32"/>
-      <c r="C73" s="33"/>
-      <c r="D73" s="5"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="29"/>
-      <c r="B74" s="32"/>
-      <c r="C74" s="33"/>
-      <c r="D74" s="5"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="29"/>
-      <c r="B75" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D75" s="6">
-        <f>SUM(D70:D74)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="37"/>
-      <c r="B76" s="38"/>
-      <c r="C76" s="39"/>
-      <c r="D76" s="40"/>
-    </row>
-    <row r="77" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="8"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D77" s="9" t="e">
-        <f>D12+D19+D26+D33+D40+D47+D54+D61+D68+D75+#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B78" s="27"/>
-      <c r="C78" s="27"/>
-      <c r="D78" s="27"/>
+      <c r="B79" s="34"/>
+      <c r="C79" s="34"/>
+      <c r="D79" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="85">
+  <mergeCells count="86">
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="A49:A55"/>
-    <mergeCell ref="A70:A76"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="A63:A69"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="A42:A48"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="A36:A42"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B4:C5"/>
     <mergeCell ref="B6:C6"/>
@@ -2022,125 +1955,146 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="A6:A14"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B14:D14"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B38:C38"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A14:A20"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="A28:A34"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="A64:A70"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="A50:A56"/>
+    <mergeCell ref="A71:A77"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="A57:A63"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A22:A28"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B28:D28"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
-  <conditionalFormatting sqref="D6:D12">
-    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Terminé">
+  <conditionalFormatting sqref="D6:D13">
+    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="24" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="20" priority="24" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D19">
-    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D14)))</formula>
+  <conditionalFormatting sqref="D15:D20">
+    <cfRule type="containsText" dxfId="19" priority="21" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D14)))</formula>
+    <cfRule type="containsText" dxfId="18" priority="22" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D15)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28:D33">
-    <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D28)))</formula>
+  <conditionalFormatting sqref="D29:D34">
+    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="20" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D28)))</formula>
+    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D29)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35:D40">
-    <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D35)))</formula>
+  <conditionalFormatting sqref="D36:D41">
+    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D35)))</formula>
+    <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D36)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D63:D68">
-    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D63)))</formula>
+  <conditionalFormatting sqref="D64:D69">
+    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D64)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D63)))</formula>
+    <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D64)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D70:D75">
-    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D70)))</formula>
+  <conditionalFormatting sqref="D71:D76">
+    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D71)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D70)))</formula>
+    <cfRule type="containsText" dxfId="10" priority="14" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D71)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42:D47">
+  <conditionalFormatting sqref="D43:D48">
     <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D42)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D43)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D42)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D43)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D54">
+  <conditionalFormatting sqref="D50:D55">
     <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D49)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D49)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D50)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56:D61">
+  <conditionalFormatting sqref="D57:D62">
     <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D56)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D57)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D56)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D57)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21:D26">
+  <conditionalFormatting sqref="D22:D27">
     <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D21)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D22)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D21)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D22)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D77">
+  <conditionalFormatting sqref="D78">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D77)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D78)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D77)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D78)))</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
@@ -2152,8 +2106,8 @@
     <oddFooter>&amp;L&amp;8&amp;F&amp;R&amp;8Page &amp;P/&amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="48" max="16383" man="1"/>
-    <brk id="77" max="3" man="1"/>
+    <brk id="49" max="16383" man="1"/>
+    <brk id="78" max="3" man="1"/>
   </rowBreaks>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>

--- a/00 - Documents/3_PASCHE_Journal_2023.xlsx
+++ b/00 - Documents/3_PASCHE_Journal_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FutnetSingleMaster\00 - Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDD842F-72AE-49E9-A470-ADD87F3362D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4DE901-1F9C-42F2-A9B9-710336C3D744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -131,6 +131,18 @@
   </si>
   <si>
     <t>Préparation a la revue de projet</t>
+  </si>
+  <si>
+    <t>Rédaction du PV de la revue de projet (src : 00 - Documents/PV/ PV-22.05.23)</t>
+  </si>
+  <si>
+    <t>Diagramme d'activité</t>
+  </si>
+  <si>
+    <t>Diagramme de séquence / correction du diagramme Use Case</t>
+  </si>
+  <si>
+    <t>Maquette</t>
   </si>
 </sst>
 </file>
@@ -508,6 +520,56 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -556,6 +618,34 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -563,84 +653,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1258,7 +1270,7 @@
   <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1272,89 +1284,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="39" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="35" t="s">
+      <c r="F1" s="14"/>
+      <c r="G1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="35"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="33"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="46"/>
       <c r="D2" s="10">
         <v>145341</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="20"/>
+      <c r="G2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="36"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="44"/>
-      <c r="G3" s="37" t="s">
+      <c r="F3" s="22"/>
+      <c r="G3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="37"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="29"/>
+      <c r="C4" s="42"/>
       <c r="D4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="46"/>
-      <c r="G4" s="38" t="s">
+      <c r="F4" s="24"/>
+      <c r="G4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="38"/>
+      <c r="H4" s="18"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="31"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="44"/>
       <c r="D5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="48"/>
+      <c r="F5" s="26"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13">
+      <c r="A6" s="28">
         <v>45068</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="46"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="4">
         <v>0.5</v>
       </c>
@@ -1363,67 +1375,67 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="45" t="s">
+      <c r="A7" s="29"/>
+      <c r="B7" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="46"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="43" t="s">
+      <c r="A8" s="29"/>
+      <c r="B8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="44"/>
+      <c r="C8" s="22"/>
       <c r="D8" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="45" t="s">
+      <c r="A9" s="29"/>
+      <c r="B9" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="46"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="45" t="s">
+      <c r="A10" s="29"/>
+      <c r="B10" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="46"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="5">
         <v>2.5</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
-      <c r="B11" s="39" t="s">
+      <c r="A11" s="29"/>
+      <c r="B11" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="40"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="5">
         <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="39" t="s">
+      <c r="A12" s="29"/>
+      <c r="B12" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="40"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="5">
         <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="2" t="s">
         <v>6</v>
       </c>
@@ -1436,45 +1448,65 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="21"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="36"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13">
+      <c r="A15" s="28">
         <v>45069</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="4"/>
+      <c r="B15" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="4">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="5"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="5">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="5"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="5">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="5"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="5">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="5"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="33"/>
+      <c r="D19" s="5">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="2" t="s">
         <v>6</v>
       </c>
@@ -1483,49 +1515,49 @@
       </c>
       <c r="D20" s="6">
         <f>SUM(D15:D19)</f>
-        <v>0</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="21"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="36"/>
     </row>
     <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="13">
+      <c r="A22" s="28">
         <v>45070</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="16"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="31"/>
       <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="33"/>
       <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="33"/>
       <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="18"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="5"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="18"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="33"/>
       <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="2" t="s">
         <v>6</v>
       </c>
@@ -1538,45 +1570,45 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="21"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="36"/>
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="13">
+      <c r="A29" s="28">
         <v>45071</v>
       </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="16"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="31"/>
       <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="33"/>
       <c r="D30" s="5"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="33"/>
       <c r="D31" s="5"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="18"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="33"/>
       <c r="D32" s="5"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="14"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="18"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="33"/>
       <c r="D33" s="5"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
+      <c r="A34" s="29"/>
       <c r="B34" s="2" t="s">
         <v>6</v>
       </c>
@@ -1589,45 +1621,45 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="24"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="39"/>
     </row>
     <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="13">
+      <c r="A36" s="28">
         <v>45072</v>
       </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="16"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="31"/>
       <c r="D36" s="4"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="33"/>
       <c r="D37" s="5"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
+      <c r="A38" s="29"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="33"/>
       <c r="D38" s="5"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="14"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="18"/>
+      <c r="A39" s="29"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="33"/>
       <c r="D39" s="5"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="14"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="18"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="33"/>
       <c r="D40" s="5"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="14"/>
+      <c r="A41" s="29"/>
       <c r="B41" s="2" t="s">
         <v>6</v>
       </c>
@@ -1640,45 +1672,45 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="14"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="24"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="39"/>
     </row>
     <row r="43" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="25">
+      <c r="A43" s="47">
         <v>45076</v>
       </c>
-      <c r="B43" s="15"/>
-      <c r="C43" s="16"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="31"/>
       <c r="D43" s="4"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="14"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="18"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="33"/>
       <c r="D44" s="5"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="14"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="18"/>
+      <c r="A45" s="29"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="33"/>
       <c r="D45" s="5"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="14"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="18"/>
+      <c r="A46" s="29"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="33"/>
       <c r="D46" s="5"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="14"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="18"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="33"/>
       <c r="D47" s="5"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="14"/>
+      <c r="A48" s="29"/>
       <c r="B48" s="2" t="s">
         <v>6</v>
       </c>
@@ -1691,45 +1723,45 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="26"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="24"/>
+      <c r="A49" s="48"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="39"/>
     </row>
     <row r="50" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="25">
+      <c r="A50" s="47">
         <v>45077</v>
       </c>
-      <c r="B50" s="15"/>
-      <c r="C50" s="16"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="31"/>
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="14"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="18"/>
+      <c r="A51" s="29"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="33"/>
       <c r="D51" s="5"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="14"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="18"/>
+      <c r="A52" s="29"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="33"/>
       <c r="D52" s="5"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="14"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="18"/>
+      <c r="A53" s="29"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="33"/>
       <c r="D53" s="5"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="14"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="18"/>
+      <c r="A54" s="29"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="33"/>
       <c r="D54" s="5"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="14"/>
+      <c r="A55" s="29"/>
       <c r="B55" s="2" t="s">
         <v>6</v>
       </c>
@@ -1742,45 +1774,45 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="26"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="24"/>
+      <c r="A56" s="48"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="39"/>
     </row>
     <row r="57" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="25">
+      <c r="A57" s="47">
         <v>45078</v>
       </c>
-      <c r="B57" s="15"/>
-      <c r="C57" s="16"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="31"/>
       <c r="D57" s="4"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="14"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="18"/>
+      <c r="A58" s="29"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="33"/>
       <c r="D58" s="5"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="14"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="18"/>
+      <c r="A59" s="29"/>
+      <c r="B59" s="32"/>
+      <c r="C59" s="33"/>
       <c r="D59" s="5"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="14"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="18"/>
+      <c r="A60" s="29"/>
+      <c r="B60" s="32"/>
+      <c r="C60" s="33"/>
       <c r="D60" s="5"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="14"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="18"/>
+      <c r="A61" s="29"/>
+      <c r="B61" s="32"/>
+      <c r="C61" s="33"/>
       <c r="D61" s="5"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="14"/>
+      <c r="A62" s="29"/>
       <c r="B62" s="2" t="s">
         <v>6</v>
       </c>
@@ -1793,45 +1825,45 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="26"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="24"/>
+      <c r="A63" s="48"/>
+      <c r="B63" s="37"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="39"/>
     </row>
     <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="25">
+      <c r="A64" s="47">
         <v>45079</v>
       </c>
-      <c r="B64" s="15"/>
-      <c r="C64" s="16"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="31"/>
       <c r="D64" s="4"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="14"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="18"/>
+      <c r="A65" s="29"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="33"/>
       <c r="D65" s="5"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="14"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="18"/>
+      <c r="A66" s="29"/>
+      <c r="B66" s="32"/>
+      <c r="C66" s="33"/>
       <c r="D66" s="5"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="14"/>
-      <c r="B67" s="17"/>
-      <c r="C67" s="18"/>
+      <c r="A67" s="29"/>
+      <c r="B67" s="32"/>
+      <c r="C67" s="33"/>
       <c r="D67" s="5"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="14"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="18"/>
+      <c r="A68" s="29"/>
+      <c r="B68" s="32"/>
+      <c r="C68" s="33"/>
       <c r="D68" s="5"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="14"/>
+      <c r="A69" s="29"/>
       <c r="B69" s="2" t="s">
         <v>6</v>
       </c>
@@ -1844,45 +1876,45 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="26"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="21"/>
+      <c r="A70" s="48"/>
+      <c r="B70" s="34"/>
+      <c r="C70" s="35"/>
+      <c r="D70" s="36"/>
     </row>
     <row r="71" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="25">
+      <c r="A71" s="47">
         <v>45082</v>
       </c>
-      <c r="B71" s="15"/>
-      <c r="C71" s="16"/>
+      <c r="B71" s="30"/>
+      <c r="C71" s="31"/>
       <c r="D71" s="4"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="14"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="18"/>
+      <c r="A72" s="29"/>
+      <c r="B72" s="32"/>
+      <c r="C72" s="33"/>
       <c r="D72" s="5"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="14"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="18"/>
+      <c r="A73" s="29"/>
+      <c r="B73" s="32"/>
+      <c r="C73" s="33"/>
       <c r="D73" s="5"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="14"/>
-      <c r="B74" s="17"/>
-      <c r="C74" s="18"/>
+      <c r="A74" s="29"/>
+      <c r="B74" s="32"/>
+      <c r="C74" s="33"/>
       <c r="D74" s="5"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="14"/>
-      <c r="B75" s="17"/>
-      <c r="C75" s="18"/>
+      <c r="A75" s="29"/>
+      <c r="B75" s="32"/>
+      <c r="C75" s="33"/>
       <c r="D75" s="5"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="14"/>
+      <c r="A76" s="29"/>
       <c r="B76" s="2" t="s">
         <v>6</v>
       </c>
@@ -1895,10 +1927,10 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="26"/>
-      <c r="B77" s="22"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="24"/>
+      <c r="A77" s="48"/>
+      <c r="B77" s="37"/>
+      <c r="C77" s="38"/>
+      <c r="D77" s="39"/>
     </row>
     <row r="78" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="8"/>
@@ -1912,25 +1944,69 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="34" t="s">
+      <c r="A79" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B79" s="34"/>
-      <c r="C79" s="34"/>
-      <c r="D79" s="34"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="27"/>
+      <c r="D79" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A22:A28"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="A57:A63"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="A71:A77"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="A64:A70"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="A50:A56"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A6:A14"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="A79:D79"/>
     <mergeCell ref="A15:A21"/>
     <mergeCell ref="B15:C15"/>
@@ -1947,66 +2023,22 @@
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="A36:A42"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B4:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A6:A14"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="A64:A70"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="A43:A49"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="A50:A56"/>
-    <mergeCell ref="A71:A77"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="A57:A63"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A22:A28"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B28:D28"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="D6:D13">

--- a/00 - Documents/3_PASCHE_Journal_2023.xlsx
+++ b/00 - Documents/3_PASCHE_Journal_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FutnetSingleMaster\00 - Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4DE901-1F9C-42F2-A9B9-710336C3D744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A63392-6B87-4F33-9A7E-E75901A44E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Journal!$A$5:$HI$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Journal!$B:$D,Journal!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$D$78</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$D$80</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -143,6 +143,27 @@
   </si>
   <si>
     <t>Maquette</t>
+  </si>
+  <si>
+    <t>Diagramme de classe</t>
+  </si>
+  <si>
+    <t>Diagramme ER</t>
+  </si>
+  <si>
+    <t>Diagramme des classes</t>
+  </si>
+  <si>
+    <t>Diagramme d'interaction</t>
+  </si>
+  <si>
+    <t>Implémenter la BD</t>
+  </si>
+  <si>
+    <t>Documentation Conception</t>
+  </si>
+  <si>
+    <t>Implémenter les services REST</t>
   </si>
 </sst>
 </file>
@@ -520,6 +541,74 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -528,6 +617,10 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -548,76 +641,12 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -644,14 +673,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1267,10 +1288,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H79"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1284,89 +1305,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="13" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="15" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="15"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="46"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="48"/>
       <c r="D2" s="10">
         <v>145341</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="16" t="s">
+      <c r="F2" s="39"/>
+      <c r="G2" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="16"/>
+      <c r="H2" s="35"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="17" t="s">
+      <c r="F3" s="30"/>
+      <c r="G3" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="17"/>
+      <c r="H3" s="36"/>
     </row>
     <row r="4" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="42"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="18" t="s">
+      <c r="F4" s="28"/>
+      <c r="G4" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="18"/>
+      <c r="H4" s="37"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="44"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
       <c r="D5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="26"/>
+      <c r="F5" s="41"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="28">
+      <c r="A6" s="13">
         <v>45068</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="24"/>
+      <c r="C6" s="28"/>
       <c r="D6" s="4">
         <v>0.5</v>
       </c>
@@ -1375,67 +1396,67 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="29"/>
-      <c r="B7" s="23" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="24"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="29"/>
-      <c r="B8" s="21" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="22"/>
+      <c r="C8" s="30"/>
       <c r="D8" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="29"/>
-      <c r="B9" s="23" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="24"/>
+      <c r="C9" s="28"/>
       <c r="D9" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="29"/>
-      <c r="B10" s="23" t="s">
+      <c r="A10" s="14"/>
+      <c r="B10" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="24"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="5">
         <v>2.5</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="29"/>
-      <c r="B11" s="13" t="s">
+      <c r="A11" s="14"/>
+      <c r="B11" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="14"/>
+      <c r="C11" s="32"/>
       <c r="D11" s="5">
         <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="29"/>
-      <c r="B12" s="13" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="14"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="5">
         <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="29"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="2" t="s">
         <v>6</v>
       </c>
@@ -1448,582 +1469,559 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="36"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="28">
+      <c r="A15" s="13">
         <v>45069</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="14"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="4">
         <v>0.25</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="29"/>
-      <c r="B16" s="23" t="s">
+      <c r="A16" s="14"/>
+      <c r="B16" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="24"/>
+      <c r="C16" s="28"/>
       <c r="D16" s="5">
         <v>0.75</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="29"/>
-      <c r="B17" s="23" t="s">
+      <c r="A17" s="14"/>
+      <c r="B17" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="24"/>
+      <c r="C17" s="28"/>
       <c r="D17" s="5">
         <v>1.5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="29"/>
-      <c r="B18" s="32" t="s">
+      <c r="A18" s="14"/>
+      <c r="B18" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="33"/>
+      <c r="C18" s="28"/>
       <c r="D18" s="5">
         <v>1.5</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="29"/>
-      <c r="B19" s="32" t="s">
+      <c r="A19" s="14"/>
+      <c r="B19" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="33"/>
+      <c r="C19" s="30"/>
       <c r="D19" s="5">
         <v>1.5</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="29"/>
-      <c r="B20" s="2" t="s">
+      <c r="A20" s="14"/>
+      <c r="B20" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="41"/>
+      <c r="D20" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="14"/>
+      <c r="B21" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="41"/>
+      <c r="D21" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="14"/>
+      <c r="B22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="6">
-        <f>SUM(D15:D19)</f>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36"/>
-    </row>
-    <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="28">
+      <c r="D22" s="6">
+        <f>SUM(D15:D21)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="21"/>
+    </row>
+    <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="13">
         <v>45070</v>
       </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="29"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="5"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="29"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="5"/>
+      <c r="B24" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="29"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="5"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="5">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="29"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="5"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="D26" s="5">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="29"/>
-      <c r="B27" s="2" t="s">
+      <c r="A27" s="14"/>
+      <c r="B27" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="14"/>
+      <c r="B28" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="18"/>
+      <c r="D28" s="5">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="14"/>
+      <c r="B29" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="6">
-        <f>SUM(D22:D26)</f>
+      <c r="D29" s="6">
+        <f>SUM(D24:D28)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="21"/>
+    </row>
+    <row r="31" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="13">
+        <v>45071</v>
+      </c>
+      <c r="B31" s="15"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="14"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="14"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="14"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="14"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="14"/>
+      <c r="B36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="6">
+        <f>SUM(D31:D35)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="36"/>
-    </row>
-    <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="28">
-        <v>45071</v>
-      </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="29"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="5"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="29"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="5"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="29"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="5"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="29"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="5"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="29"/>
-      <c r="B34" s="2" t="s">
+    <row r="37" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="24"/>
+    </row>
+    <row r="38" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="13">
+        <v>45072</v>
+      </c>
+      <c r="B38" s="15"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="14"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="14"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="14"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="14"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="14"/>
+      <c r="B43" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="6">
-        <f>SUM(D29:D33)</f>
+      <c r="D43" s="6">
+        <f>SUM(D38:D42)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="39"/>
-    </row>
-    <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="28">
-        <v>45072</v>
-      </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="29"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="5"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="29"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="5"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="29"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="5"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="29"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="5"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="29"/>
-      <c r="B41" s="2" t="s">
+    <row r="44" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="14"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="24"/>
+    </row>
+    <row r="45" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="25">
+        <v>45076</v>
+      </c>
+      <c r="B45" s="15"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="14"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="14"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="5"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="14"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="5"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="14"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="5"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="14"/>
+      <c r="B50" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C50" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="6">
-        <f>SUM(D36:D40)</f>
+      <c r="D50" s="6">
+        <f>SUM(D45:D49)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="29"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="39"/>
-    </row>
-    <row r="43" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="47">
-        <v>45076</v>
-      </c>
-      <c r="B43" s="30"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="29"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="5"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="29"/>
-      <c r="B45" s="32"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="5"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="29"/>
-      <c r="B46" s="32"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="5"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="29"/>
-      <c r="B47" s="32"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="5"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="29"/>
-      <c r="B48" s="2" t="s">
+    <row r="51" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="26"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="24"/>
+    </row>
+    <row r="52" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="25">
+        <v>45077</v>
+      </c>
+      <c r="B52" s="15"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="4"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="14"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="5"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="14"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="5"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="14"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="5"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="14"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="5"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="14"/>
+      <c r="B57" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D48" s="6">
-        <f>SUM(D43:D47)</f>
+      <c r="D57" s="6">
+        <f>SUM(D52:D56)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="48"/>
-      <c r="B49" s="37"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="39"/>
-    </row>
-    <row r="50" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="47">
-        <v>45077</v>
-      </c>
-      <c r="B50" s="30"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="4"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="29"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="5"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="29"/>
-      <c r="B52" s="32"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="5"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="29"/>
-      <c r="B53" s="32"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="5"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="29"/>
-      <c r="B54" s="32"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="5"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="29"/>
-      <c r="B55" s="2" t="s">
+    <row r="58" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="26"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="24"/>
+    </row>
+    <row r="59" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="25">
+        <v>45078</v>
+      </c>
+      <c r="B59" s="15"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="4"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="14"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="5"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="14"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="5"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="14"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="5"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="14"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="5"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="14"/>
+      <c r="B64" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C64" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D55" s="6">
-        <f>SUM(D50:D54)</f>
+      <c r="D64" s="6">
+        <f>SUM(D59:D63)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="48"/>
-      <c r="B56" s="37"/>
-      <c r="C56" s="38"/>
-      <c r="D56" s="39"/>
-    </row>
-    <row r="57" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="47">
-        <v>45078</v>
-      </c>
-      <c r="B57" s="30"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="4"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="29"/>
-      <c r="B58" s="32"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="5"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="29"/>
-      <c r="B59" s="32"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="5"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="29"/>
-      <c r="B60" s="32"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="5"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="29"/>
-      <c r="B61" s="32"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="5"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="29"/>
-      <c r="B62" s="2" t="s">
+    <row r="65" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="26"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="24"/>
+    </row>
+    <row r="66" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="25">
+        <v>45079</v>
+      </c>
+      <c r="B66" s="15"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="4"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="14"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="5"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="14"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="5"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="14"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="5"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="14"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="5"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="14"/>
+      <c r="B71" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C71" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D62" s="6">
-        <f>SUM(D57:D61)</f>
+      <c r="D71" s="6">
+        <f>SUM(D66:D70)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="48"/>
-      <c r="B63" s="37"/>
-      <c r="C63" s="38"/>
-      <c r="D63" s="39"/>
-    </row>
-    <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="47">
-        <v>45079</v>
-      </c>
-      <c r="B64" s="30"/>
-      <c r="C64" s="31"/>
-      <c r="D64" s="4"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="29"/>
-      <c r="B65" s="32"/>
-      <c r="C65" s="33"/>
-      <c r="D65" s="5"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="29"/>
-      <c r="B66" s="32"/>
-      <c r="C66" s="33"/>
-      <c r="D66" s="5"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="29"/>
-      <c r="B67" s="32"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="5"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="29"/>
-      <c r="B68" s="32"/>
-      <c r="C68" s="33"/>
-      <c r="D68" s="5"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="29"/>
-      <c r="B69" s="2" t="s">
+    <row r="72" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="26"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="21"/>
+    </row>
+    <row r="73" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="25">
+        <v>45082</v>
+      </c>
+      <c r="B73" s="15"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="4"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="14"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="5"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="14"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="5"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="14"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="5"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="14"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="5"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="14"/>
+      <c r="B78" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C78" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D69" s="6">
-        <f>SUM(D64:D68)</f>
+      <c r="D78" s="6">
+        <f>SUM(D73:D77)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="48"/>
-      <c r="B70" s="34"/>
-      <c r="C70" s="35"/>
-      <c r="D70" s="36"/>
-    </row>
-    <row r="71" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="47">
-        <v>45082</v>
-      </c>
-      <c r="B71" s="30"/>
-      <c r="C71" s="31"/>
-      <c r="D71" s="4"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="29"/>
-      <c r="B72" s="32"/>
-      <c r="C72" s="33"/>
-      <c r="D72" s="5"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="29"/>
-      <c r="B73" s="32"/>
-      <c r="C73" s="33"/>
-      <c r="D73" s="5"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="29"/>
-      <c r="B74" s="32"/>
-      <c r="C74" s="33"/>
-      <c r="D74" s="5"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="29"/>
-      <c r="B75" s="32"/>
-      <c r="C75" s="33"/>
-      <c r="D75" s="5"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="29"/>
-      <c r="B76" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D76" s="6">
-        <f>SUM(D71:D75)</f>
+    <row r="79" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="26"/>
+      <c r="B79" s="22"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="24"/>
+    </row>
+    <row r="80" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="8"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" s="9" t="e">
+        <f>D13+D22+D29+D36+D43+D50+D57+D64+D71+D78+#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="33" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="48"/>
-      <c r="B77" s="37"/>
-      <c r="C77" s="38"/>
-      <c r="D77" s="39"/>
-    </row>
-    <row r="78" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="8"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D78" s="9" t="e">
-        <f>D13+D20+D27+D34+D41+D48+D55+D62+D69+D76+#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B79" s="27"/>
-      <c r="C79" s="27"/>
-      <c r="D79" s="27"/>
+      <c r="B81" s="33"/>
+      <c r="C81" s="33"/>
+      <c r="D81" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="86">
-    <mergeCell ref="A22:A28"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="A57:A63"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="A71:A77"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="A64:A70"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="A43:A49"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="A50:A56"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A6:A14"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="A15:A21"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="A36:A42"/>
-    <mergeCell ref="B11:C11"/>
+  <mergeCells count="88">
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A4:A5"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G3:H3"/>
@@ -2032,13 +2030,78 @@
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A15:A23"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="A38:A44"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A6:A14"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="A66:A72"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="A45:A51"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A52:A58"/>
+    <mergeCell ref="A73:A79"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="A59:A65"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B30:D30"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="D6:D13">
@@ -2049,7 +2112,7 @@
       <formula>NOT(ISERROR(SEARCH("En cours",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15:D20">
+  <conditionalFormatting sqref="D15:D22">
     <cfRule type="containsText" dxfId="19" priority="21" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D15)))</formula>
     </cfRule>
@@ -2057,76 +2120,76 @@
       <formula>NOT(ISERROR(SEARCH("En cours",D15)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29:D34">
+  <conditionalFormatting sqref="D31:D36">
     <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D29)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D31)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D29)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D31)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36:D41">
+  <conditionalFormatting sqref="D38:D43">
     <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D36)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D38)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D36)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D38)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D64:D69">
+  <conditionalFormatting sqref="D66:D71">
     <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D64)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D66)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D64)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D66)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D71:D76">
+  <conditionalFormatting sqref="D73:D78">
     <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D71)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D73)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="10" priority="14" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D71)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D73)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43:D48">
+  <conditionalFormatting sqref="D45:D50">
     <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D43)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D45)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D43)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D45)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50:D55">
+  <conditionalFormatting sqref="D52:D57">
     <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D50)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D52)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D50)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D52)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D57:D62">
+  <conditionalFormatting sqref="D59:D64">
     <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D57)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D59)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D57)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D59)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22:D27">
+  <conditionalFormatting sqref="D24:D29">
     <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D22)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D24)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D22)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D24)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D78">
+  <conditionalFormatting sqref="D80">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D78)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D80)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D78)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D80)))</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
@@ -2138,8 +2201,8 @@
     <oddFooter>&amp;L&amp;8&amp;F&amp;R&amp;8Page &amp;P/&amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="49" max="16383" man="1"/>
-    <brk id="78" max="3" man="1"/>
+    <brk id="51" max="16383" man="1"/>
+    <brk id="80" max="3" man="1"/>
   </rowBreaks>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>

--- a/00 - Documents/3_PASCHE_Journal_2023.xlsx
+++ b/00 - Documents/3_PASCHE_Journal_2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FutnetSingleMaster\00 - Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TPI\futnetsinglemaster\00 - Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A63392-6B87-4F33-9A7E-E75901A44E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC70048-87C6-404A-9E63-CAAC72B03AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -165,6 +165,105 @@
   <si>
     <t>Implémenter les services REST</t>
   </si>
+  <si>
+    <t>Documentaion réalisation</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Implémenter les services REST (Session)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> J'ai sous-éstimmer l'implémentation au niveau des sessions. J'ai énormément de peine à faire fonctionner les session.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Implémenter les services REST</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>Pour ce premier jour tous c'est plutôt bien passé, j'ai eu la première visite des experts et ça c'est bien passé. J'ai bien avancée sur l'analyse j'espère continuer sur ce rythme.</t>
+  </si>
+  <si>
+    <t>Aujourd'hui j'ai réussi à finir l'analyse, j'ai aussi pus commencé la conception. J'espère commencer la réalisation demain pour prendre le plus d'avance possible sur mon programme et pour pouvoir paufinner le plus possible.</t>
+  </si>
+  <si>
+    <t>J'était toujours bloqué sur le problème 1, j'ai décider de laisser tomber pour aujoud'hui, je me suis concentré sur l'api en générale.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">J'étais finalement partis chercher trop loin, la solution était beaucoup plus simple que ce que je fesais.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>J'ai bien avancé le serveur. Je vais travaillé dessus ce week-end afin de pouvoir commencé le côté client  dès mardi.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -174,7 +273,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -245,6 +344,48 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF92D050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="8"/>
+      <color rgb="FF92D050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="8"/>
+      <color rgb="FF92D050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF92D050"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -492,7 +633,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -541,6 +682,78 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -549,6 +762,18 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -565,18 +790,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -597,82 +810,23 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1290,8 +1444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1305,89 +1459,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="31" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="34" t="s">
+      <c r="F1" s="27"/>
+      <c r="G1" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="34"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="48"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="10">
         <v>145341</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="35" t="s">
+      <c r="F2" s="29"/>
+      <c r="G2" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="35"/>
+      <c r="H2" s="48"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="36" t="s">
+      <c r="F3" s="31"/>
+      <c r="G3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="36"/>
+      <c r="H3" s="24"/>
     </row>
     <row r="4" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="44"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="37" t="s">
+      <c r="F4" s="21"/>
+      <c r="G4" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="37"/>
+      <c r="H4" s="25"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="46"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="41"/>
+      <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13">
+      <c r="A6" s="33">
         <v>45068</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="28"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="4">
         <v>0.5</v>
       </c>
@@ -1396,67 +1550,67 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="27" t="s">
+      <c r="A7" s="34"/>
+      <c r="B7" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="28"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="29" t="s">
+      <c r="A8" s="34"/>
+      <c r="B8" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="30"/>
+      <c r="C8" s="31"/>
       <c r="D8" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="27" t="s">
+      <c r="A9" s="34"/>
+      <c r="B9" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="28"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="27" t="s">
+      <c r="A10" s="34"/>
+      <c r="B10" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="28"/>
+      <c r="C10" s="21"/>
       <c r="D10" s="5">
         <v>2.5</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
-      <c r="B11" s="31" t="s">
+      <c r="A11" s="34"/>
+      <c r="B11" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="32"/>
+      <c r="C11" s="27"/>
       <c r="D11" s="5">
         <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="31" t="s">
+      <c r="A12" s="34"/>
+      <c r="B12" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="32"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="5">
         <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="2" t="s">
         <v>6</v>
       </c>
@@ -1468,86 +1622,88 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="21"/>
+    <row r="14" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="34"/>
+      <c r="B14" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="36"/>
+      <c r="D14" s="37"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13">
+      <c r="A15" s="33">
         <v>45069</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="32"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="4">
         <v>0.25</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="27" t="s">
+      <c r="A16" s="34"/>
+      <c r="B16" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="28"/>
+      <c r="C16" s="21"/>
       <c r="D16" s="5">
         <v>0.75</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="27" t="s">
+      <c r="A17" s="34"/>
+      <c r="B17" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="28"/>
+      <c r="C17" s="21"/>
       <c r="D17" s="5">
         <v>1.5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
-      <c r="B18" s="27" t="s">
+      <c r="A18" s="34"/>
+      <c r="B18" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="28"/>
+      <c r="C18" s="21"/>
       <c r="D18" s="5">
         <v>1.5</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="29" t="s">
+      <c r="A19" s="34"/>
+      <c r="B19" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="30"/>
+      <c r="C19" s="31"/>
       <c r="D19" s="5">
         <v>1.5</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
-      <c r="B20" s="40" t="s">
+      <c r="A20" s="34"/>
+      <c r="B20" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="41"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="5">
         <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="40" t="s">
+      <c r="A21" s="34"/>
+      <c r="B21" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="41"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="2" t="s">
         <v>6</v>
       </c>
@@ -1560,65 +1716,67 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="21"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="36"/>
+      <c r="D23" s="37"/>
     </row>
     <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="13">
+      <c r="A24" s="33">
         <v>45070</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="16"/>
+      <c r="C24" s="14"/>
       <c r="D24" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
-      <c r="B25" s="17" t="s">
+      <c r="A25" s="34"/>
+      <c r="B25" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="18"/>
+      <c r="C25" s="14"/>
       <c r="D25" s="5">
         <v>1.5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="17" t="s">
+      <c r="A26" s="34"/>
+      <c r="B26" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="18"/>
+      <c r="C26" s="47"/>
       <c r="D26" s="5">
         <v>0.5</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
-      <c r="B27" s="17" t="s">
+      <c r="A27" s="34"/>
+      <c r="B27" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="18"/>
+      <c r="C27" s="31"/>
       <c r="D27" s="5">
         <v>1.5</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="18"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="47"/>
       <c r="D28" s="5">
         <v>3.5</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
+      <c r="A29" s="34"/>
       <c r="B29" s="2" t="s">
         <v>6</v>
       </c>
@@ -1631,45 +1789,55 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="21"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="36"/>
+      <c r="D30" s="37"/>
     </row>
     <row r="31" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="13">
+      <c r="A31" s="33">
         <v>45071</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="4"/>
+      <c r="B31" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="47"/>
+      <c r="D31" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="5"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="31"/>
+      <c r="D32" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="14"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="18"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="41"/>
       <c r="D33" s="5"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="18"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="41"/>
       <c r="D34" s="5"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
+      <c r="A35" s="34"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="41"/>
       <c r="D35" s="5"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
+      <c r="A36" s="34"/>
       <c r="B36" s="2" t="s">
         <v>6</v>
       </c>
@@ -1678,49 +1846,59 @@
       </c>
       <c r="D36" s="6">
         <f>SUM(D31:D35)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="24"/>
+      <c r="A37" s="34"/>
+      <c r="B37" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="43"/>
+      <c r="D37" s="44"/>
     </row>
     <row r="38" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="13">
+      <c r="A38" s="33">
         <v>45072</v>
       </c>
-      <c r="B38" s="15"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="4"/>
+      <c r="B38" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="47"/>
+      <c r="D38" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="14"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="5"/>
+      <c r="A39" s="34"/>
+      <c r="B39" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="31"/>
+      <c r="D39" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="14"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="18"/>
+      <c r="A40" s="34"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="41"/>
       <c r="D40" s="5"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="14"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="18"/>
+      <c r="A41" s="34"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="41"/>
       <c r="D41" s="5"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="14"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
+      <c r="A42" s="34"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="41"/>
       <c r="D42" s="5"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="14"/>
+      <c r="A43" s="34"/>
       <c r="B43" s="2" t="s">
         <v>6</v>
       </c>
@@ -1729,49 +1907,51 @@
       </c>
       <c r="D43" s="6">
         <f>SUM(D38:D42)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="14"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="24"/>
+      <c r="A44" s="34"/>
+      <c r="B44" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="43"/>
+      <c r="D44" s="44"/>
     </row>
     <row r="45" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="25">
+      <c r="A45" s="45">
         <v>45076</v>
       </c>
-      <c r="B45" s="15"/>
-      <c r="C45" s="16"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="39"/>
       <c r="D45" s="4"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="14"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="18"/>
+      <c r="A46" s="34"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="41"/>
       <c r="D46" s="5"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="14"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="18"/>
+      <c r="A47" s="34"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="41"/>
       <c r="D47" s="5"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="14"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="18"/>
+      <c r="A48" s="34"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="41"/>
       <c r="D48" s="5"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="14"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="18"/>
+      <c r="A49" s="34"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="41"/>
       <c r="D49" s="5"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="14"/>
+      <c r="A50" s="34"/>
       <c r="B50" s="2" t="s">
         <v>6</v>
       </c>
@@ -1784,45 +1964,45 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="26"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="24"/>
+      <c r="A51" s="46"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="44"/>
     </row>
     <row r="52" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="25">
+      <c r="A52" s="45">
         <v>45077</v>
       </c>
-      <c r="B52" s="15"/>
-      <c r="C52" s="16"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="39"/>
       <c r="D52" s="4"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="14"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="18"/>
+      <c r="A53" s="34"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="41"/>
       <c r="D53" s="5"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="14"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="18"/>
+      <c r="A54" s="34"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="41"/>
       <c r="D54" s="5"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="14"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="18"/>
+      <c r="A55" s="34"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="41"/>
       <c r="D55" s="5"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="14"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="18"/>
+      <c r="A56" s="34"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="41"/>
       <c r="D56" s="5"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="14"/>
+      <c r="A57" s="34"/>
       <c r="B57" s="2" t="s">
         <v>6</v>
       </c>
@@ -1835,45 +2015,45 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="26"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="24"/>
+      <c r="A58" s="46"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="44"/>
     </row>
     <row r="59" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="25">
+      <c r="A59" s="45">
         <v>45078</v>
       </c>
-      <c r="B59" s="15"/>
-      <c r="C59" s="16"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="39"/>
       <c r="D59" s="4"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="14"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="18"/>
+      <c r="A60" s="34"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="41"/>
       <c r="D60" s="5"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="14"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="18"/>
+      <c r="A61" s="34"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="41"/>
       <c r="D61" s="5"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="14"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="18"/>
+      <c r="A62" s="34"/>
+      <c r="B62" s="40"/>
+      <c r="C62" s="41"/>
       <c r="D62" s="5"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="14"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="18"/>
+      <c r="A63" s="34"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="41"/>
       <c r="D63" s="5"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="14"/>
+      <c r="A64" s="34"/>
       <c r="B64" s="2" t="s">
         <v>6</v>
       </c>
@@ -1886,45 +2066,45 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="26"/>
-      <c r="B65" s="22"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="24"/>
+      <c r="A65" s="46"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="43"/>
+      <c r="D65" s="44"/>
     </row>
     <row r="66" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="25">
+      <c r="A66" s="45">
         <v>45079</v>
       </c>
-      <c r="B66" s="15"/>
-      <c r="C66" s="16"/>
+      <c r="B66" s="38"/>
+      <c r="C66" s="39"/>
       <c r="D66" s="4"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="14"/>
-      <c r="B67" s="17"/>
-      <c r="C67" s="18"/>
+      <c r="A67" s="34"/>
+      <c r="B67" s="40"/>
+      <c r="C67" s="41"/>
       <c r="D67" s="5"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="14"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="18"/>
+      <c r="A68" s="34"/>
+      <c r="B68" s="40"/>
+      <c r="C68" s="41"/>
       <c r="D68" s="5"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="14"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="18"/>
+      <c r="A69" s="34"/>
+      <c r="B69" s="40"/>
+      <c r="C69" s="41"/>
       <c r="D69" s="5"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="14"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="18"/>
+      <c r="A70" s="34"/>
+      <c r="B70" s="40"/>
+      <c r="C70" s="41"/>
       <c r="D70" s="5"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="14"/>
+      <c r="A71" s="34"/>
       <c r="B71" s="2" t="s">
         <v>6</v>
       </c>
@@ -1937,45 +2117,45 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="26"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="21"/>
+      <c r="A72" s="46"/>
+      <c r="B72" s="35"/>
+      <c r="C72" s="36"/>
+      <c r="D72" s="37"/>
     </row>
     <row r="73" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="25">
+      <c r="A73" s="45">
         <v>45082</v>
       </c>
-      <c r="B73" s="15"/>
-      <c r="C73" s="16"/>
+      <c r="B73" s="38"/>
+      <c r="C73" s="39"/>
       <c r="D73" s="4"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="14"/>
-      <c r="B74" s="17"/>
-      <c r="C74" s="18"/>
+      <c r="A74" s="34"/>
+      <c r="B74" s="40"/>
+      <c r="C74" s="41"/>
       <c r="D74" s="5"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="14"/>
-      <c r="B75" s="17"/>
-      <c r="C75" s="18"/>
+      <c r="A75" s="34"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="41"/>
       <c r="D75" s="5"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="14"/>
-      <c r="B76" s="17"/>
-      <c r="C76" s="18"/>
+      <c r="A76" s="34"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="41"/>
       <c r="D76" s="5"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="14"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="18"/>
+      <c r="A77" s="34"/>
+      <c r="B77" s="40"/>
+      <c r="C77" s="41"/>
       <c r="D77" s="5"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="14"/>
+      <c r="A78" s="34"/>
       <c r="B78" s="2" t="s">
         <v>6</v>
       </c>
@@ -1988,10 +2168,10 @@
       </c>
     </row>
     <row r="79" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="26"/>
-      <c r="B79" s="22"/>
-      <c r="C79" s="23"/>
-      <c r="D79" s="24"/>
+      <c r="A79" s="46"/>
+      <c r="B79" s="42"/>
+      <c r="C79" s="43"/>
+      <c r="D79" s="44"/>
     </row>
     <row r="80" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="8"/>
@@ -2005,31 +2185,63 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="33" t="s">
+      <c r="A81" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B81" s="33"/>
-      <c r="C81" s="33"/>
-      <c r="D81" s="33"/>
+      <c r="B81" s="32"/>
+      <c r="C81" s="32"/>
+      <c r="D81" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="A59:A65"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="A73:A79"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="A66:A72"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="A45:A51"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A52:A58"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
     <mergeCell ref="A81:D81"/>
     <mergeCell ref="A15:A23"/>
     <mergeCell ref="B15:C15"/>
@@ -2046,6 +2258,22 @@
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="A38:A44"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A4:A5"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="A6:A14"/>
@@ -2054,54 +2282,6 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="A66:A72"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="A45:A51"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A52:A58"/>
-    <mergeCell ref="A73:A79"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="A59:A65"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B30:D30"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="D6:D13">

--- a/00 - Documents/3_PASCHE_Journal_2023.xlsx
+++ b/00 - Documents/3_PASCHE_Journal_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10514"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TPI\futnetsinglemaster\00 - Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paschek7/TPI/futnetsinglemaster/00 - Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC70048-87C6-404A-9E63-CAAC72B03AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A83CBB-4F12-BD45-9393-0C6F9FA3B07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="8" r:id="rId1"/>
@@ -193,6 +193,28 @@
   </si>
   <si>
     <r>
+      <t>Implémenter les services REST</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>Pour ce premier jour tous c'est plutôt bien passé, j'ai eu la première visite des experts et ça c'est bien passé. J'ai bien avancée sur l'analyse j'espère continuer sur ce rythme. J'ai finis le diagramme de use case ainsi que deux diagrammes de séquences. Il faut que je rédige un pv de la revue de projet.</t>
+  </si>
+  <si>
+    <t>Aujourd'hui j'ai réussi à finir l'analyse, j'ai aussi pus commencé la conception. J'espère commencer la réalisation demain pour prendre le plus d'avance possible sur mon programme et pour pouvoir paufinner le plus possible. J'ai corrigé le use case comme les experts me l'ont demandé et j'ai rédigé le pv.</t>
+  </si>
+  <si>
+    <r>
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="8"/>
@@ -207,33 +229,11 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> J'ai sous-éstimmer l'implémentation au niveau des sessions. J'ai énormément de peine à faire fonctionner les session.</t>
+      <t xml:space="preserve"> J'ai sous-éstimmer l'implémentation au niveau des sessions. J'ai énormément de peine à faire fonctionner les session. J'ai finis la conception et je l'ai docummenter. J'ai documenter un maximum sur ce que j'avais déjà fait.</t>
     </r>
   </si>
   <si>
-    <r>
-      <t>Implémenter les services REST</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <t>Pour ce premier jour tous c'est plutôt bien passé, j'ai eu la première visite des experts et ça c'est bien passé. J'ai bien avancée sur l'analyse j'espère continuer sur ce rythme.</t>
-  </si>
-  <si>
-    <t>Aujourd'hui j'ai réussi à finir l'analyse, j'ai aussi pus commencé la conception. J'espère commencer la réalisation demain pour prendre le plus d'avance possible sur mon programme et pour pouvoir paufinner le plus possible.</t>
-  </si>
-  <si>
-    <t>J'était toujours bloqué sur le problème 1, j'ai décider de laisser tomber pour aujoud'hui, je me suis concentré sur l'api en générale.</t>
+    <t>J'était toujours bloqué sur le problème 1, j'ai décider de laisser tomber pour aujoud'hui, je me suis concentré sur l'api en générale. J'ai aussi commencer a documenter la réalisation.</t>
   </si>
   <si>
     <r>
@@ -261,7 +261,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>J'ai bien avancé le serveur. Je vais travaillé dessus ce week-end afin de pouvoir commencé le côté client  dès mardi.</t>
+      <t>J'ai bien avancé le serveur, j'ai finis d'implémenter les requettes possibles. Il reste plus que quelque détails sur le seveur, j'ai pus avancé aussi un peux sur la documentationn</t>
     </r>
   </si>
 </sst>
@@ -344,6 +344,7 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -682,12 +683,125 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -708,125 +822,12 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1444,104 +1445,104 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="211" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="1"/>
-    <col min="2" max="3" width="31.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" style="1" customWidth="1"/>
-    <col min="6" max="217" width="9.140625" style="1" customWidth="1"/>
-    <col min="218" max="16384" width="11.5703125" style="1"/>
+    <col min="1" max="1" width="11.5" style="1"/>
+    <col min="2" max="3" width="31.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.1640625" style="1" customWidth="1"/>
+    <col min="6" max="217" width="9.1640625" style="1" customWidth="1"/>
+    <col min="218" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="26" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="47" t="s">
+      <c r="F1" s="37"/>
+      <c r="G1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="47"/>
-    </row>
-    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="H1" s="17"/>
+    </row>
+    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="10">
         <v>145341</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="48" t="s">
+      <c r="F2" s="45"/>
+      <c r="G2" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="48"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E3" s="30" t="s">
+      <c r="H2" s="40"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="24" t="s">
+      <c r="F3" s="19"/>
+      <c r="G3" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="24"/>
-    </row>
-    <row r="4" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="H3" s="41"/>
+    </row>
+    <row r="4" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="17"/>
+      <c r="C4" s="48"/>
       <c r="D4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="50" t="s">
+      <c r="F4" s="39"/>
+      <c r="G4" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="25"/>
-    </row>
-    <row r="5" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19"/>
+      <c r="H4" s="43"/>
+    </row>
+    <row r="5" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
       <c r="D5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="14"/>
-    </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="33">
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="13">
         <v>45068</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="21"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="4">
         <v>0.5</v>
       </c>
@@ -1549,68 +1550,68 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="34"/>
-      <c r="B7" s="20" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="14"/>
+      <c r="B7" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="21"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="34"/>
-      <c r="B8" s="30" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="14"/>
+      <c r="B8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="31"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="34"/>
-      <c r="B9" s="20" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="14"/>
+      <c r="B9" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="21"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="34"/>
-      <c r="B10" s="20" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="14"/>
+      <c r="B10" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="21"/>
+      <c r="C10" s="39"/>
       <c r="D10" s="5">
         <v>2.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="34"/>
-      <c r="B11" s="26" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="14"/>
+      <c r="B11" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="27"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="5">
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="34"/>
-      <c r="B12" s="26" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="14"/>
+      <c r="B12" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="27"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="5">
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="34"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="14"/>
       <c r="B13" s="2" t="s">
         <v>6</v>
       </c>
@@ -1622,88 +1623,88 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="37"/>
-    </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="33">
+    <row r="14" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14"/>
+      <c r="B14" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
+    </row>
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="13">
         <v>45069</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="27"/>
+      <c r="C15" s="37"/>
       <c r="D15" s="4">
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="34"/>
-      <c r="B16" s="20" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="14"/>
+      <c r="B16" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="21"/>
+      <c r="C16" s="39"/>
       <c r="D16" s="5">
         <v>0.75</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="34"/>
-      <c r="B17" s="20" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="14"/>
+      <c r="B17" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="21"/>
+      <c r="C17" s="39"/>
       <c r="D17" s="5">
         <v>1.5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="34"/>
-      <c r="B18" s="20" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="14"/>
+      <c r="B18" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="21"/>
+      <c r="C18" s="39"/>
       <c r="D18" s="5">
         <v>1.5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="34"/>
-      <c r="B19" s="30" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="14"/>
+      <c r="B19" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="31"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="5">
         <v>1.5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="34"/>
-      <c r="B20" s="13" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="14"/>
+      <c r="B20" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="14"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="5">
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="34"/>
-      <c r="B21" s="13" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="14"/>
+      <c r="B21" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="14"/>
+      <c r="C21" s="16"/>
       <c r="D21" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="34"/>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="14"/>
       <c r="B22" s="2" t="s">
         <v>6</v>
       </c>
@@ -1715,68 +1716,68 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
-      <c r="B23" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="37"/>
-    </row>
-    <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="33">
+    <row r="23" spans="1:4" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="14"/>
+      <c r="B23" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="23"/>
+    </row>
+    <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="13">
         <v>45070</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="14"/>
+      <c r="C24" s="16"/>
       <c r="D24" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="34"/>
-      <c r="B25" s="13" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="14"/>
+      <c r="B25" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="14"/>
+      <c r="C25" s="16"/>
       <c r="D25" s="5">
         <v>1.5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="34"/>
-      <c r="B26" s="47" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="14"/>
+      <c r="B26" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="47"/>
+      <c r="C26" s="17"/>
       <c r="D26" s="5">
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="34"/>
-      <c r="B27" s="30" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="14"/>
+      <c r="B27" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="31"/>
+      <c r="C27" s="19"/>
       <c r="D27" s="5">
         <v>1.5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="34"/>
-      <c r="B28" s="49" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="14"/>
+      <c r="B28" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="47"/>
+      <c r="C28" s="17"/>
       <c r="D28" s="5">
         <v>3.5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="34"/>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="14"/>
       <c r="B29" s="2" t="s">
         <v>6</v>
       </c>
@@ -1788,56 +1789,56 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
-      <c r="B30" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="37"/>
-    </row>
-    <row r="31" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="33">
+    <row r="30" spans="1:4" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="14"/>
+      <c r="B30" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="22"/>
+      <c r="D30" s="23"/>
+    </row>
+    <row r="31" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="13">
         <v>45071</v>
       </c>
-      <c r="B31" s="47" t="s">
+      <c r="B31" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="47"/>
+      <c r="C31" s="17"/>
       <c r="D31" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="34"/>
-      <c r="B32" s="30" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="14"/>
+      <c r="B32" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="31"/>
+      <c r="C32" s="19"/>
       <c r="D32" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="34"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="41"/>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="14"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="32"/>
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="34"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="41"/>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="14"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="32"/>
       <c r="D34" s="5"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="34"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="41"/>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="14"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="32"/>
       <c r="D35" s="5"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="34"/>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="14"/>
       <c r="B36" s="2" t="s">
         <v>6</v>
       </c>
@@ -1849,56 +1850,56 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="34"/>
-      <c r="B37" s="42" t="s">
+    <row r="37" spans="1:4" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="14"/>
+      <c r="B37" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="43"/>
-      <c r="D37" s="44"/>
-    </row>
-    <row r="38" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="33">
+      <c r="C37" s="25"/>
+      <c r="D37" s="26"/>
+    </row>
+    <row r="38" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="13">
         <v>45072</v>
       </c>
-      <c r="B38" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="47"/>
+      <c r="B38" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="17"/>
       <c r="D38" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="34"/>
-      <c r="B39" s="30" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="14"/>
+      <c r="B39" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="31"/>
+      <c r="C39" s="19"/>
       <c r="D39" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="34"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="41"/>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="14"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="32"/>
       <c r="D40" s="5"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="34"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="41"/>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="14"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="32"/>
       <c r="D41" s="5"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="34"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="41"/>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" s="14"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="32"/>
       <c r="D42" s="5"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="34"/>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" s="14"/>
       <c r="B43" s="2" t="s">
         <v>6</v>
       </c>
@@ -1910,48 +1911,48 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="34"/>
-      <c r="B44" s="52" t="s">
+    <row r="44" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="14"/>
+      <c r="B44" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="43"/>
-      <c r="D44" s="44"/>
-    </row>
-    <row r="45" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="45">
+      <c r="C44" s="25"/>
+      <c r="D44" s="26"/>
+    </row>
+    <row r="45" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="27">
         <v>45076</v>
       </c>
-      <c r="B45" s="38"/>
-      <c r="C45" s="39"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="30"/>
       <c r="D45" s="4"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="34"/>
-      <c r="B46" s="40"/>
-      <c r="C46" s="41"/>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" s="14"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="32"/>
       <c r="D46" s="5"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="34"/>
-      <c r="B47" s="40"/>
-      <c r="C47" s="41"/>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" s="14"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="32"/>
       <c r="D47" s="5"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="34"/>
-      <c r="B48" s="40"/>
-      <c r="C48" s="41"/>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" s="14"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="32"/>
       <c r="D48" s="5"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="34"/>
-      <c r="B49" s="40"/>
-      <c r="C49" s="41"/>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" s="14"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="32"/>
       <c r="D49" s="5"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="34"/>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" s="14"/>
       <c r="B50" s="2" t="s">
         <v>6</v>
       </c>
@@ -1963,46 +1964,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="46"/>
-      <c r="B51" s="42"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="44"/>
-    </row>
-    <row r="52" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="45">
+    <row r="51" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="28"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="26"/>
+    </row>
+    <row r="52" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="27">
         <v>45077</v>
       </c>
-      <c r="B52" s="38"/>
-      <c r="C52" s="39"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="30"/>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="34"/>
-      <c r="B53" s="40"/>
-      <c r="C53" s="41"/>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" s="14"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="32"/>
       <c r="D53" s="5"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="34"/>
-      <c r="B54" s="40"/>
-      <c r="C54" s="41"/>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" s="14"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="32"/>
       <c r="D54" s="5"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="34"/>
-      <c r="B55" s="40"/>
-      <c r="C55" s="41"/>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55" s="14"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="32"/>
       <c r="D55" s="5"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="34"/>
-      <c r="B56" s="40"/>
-      <c r="C56" s="41"/>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56" s="14"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="32"/>
       <c r="D56" s="5"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="34"/>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" s="14"/>
       <c r="B57" s="2" t="s">
         <v>6</v>
       </c>
@@ -2014,46 +2015,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="46"/>
-      <c r="B58" s="42"/>
-      <c r="C58" s="43"/>
-      <c r="D58" s="44"/>
-    </row>
-    <row r="59" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="45">
+    <row r="58" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="28"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="26"/>
+    </row>
+    <row r="59" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="27">
         <v>45078</v>
       </c>
-      <c r="B59" s="38"/>
-      <c r="C59" s="39"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="30"/>
       <c r="D59" s="4"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="34"/>
-      <c r="B60" s="40"/>
-      <c r="C60" s="41"/>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" s="14"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="32"/>
       <c r="D60" s="5"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="34"/>
-      <c r="B61" s="40"/>
-      <c r="C61" s="41"/>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61" s="14"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="32"/>
       <c r="D61" s="5"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="34"/>
-      <c r="B62" s="40"/>
-      <c r="C62" s="41"/>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62" s="14"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="32"/>
       <c r="D62" s="5"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="34"/>
-      <c r="B63" s="40"/>
-      <c r="C63" s="41"/>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63" s="14"/>
+      <c r="B63" s="31"/>
+      <c r="C63" s="32"/>
       <c r="D63" s="5"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="34"/>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64" s="14"/>
       <c r="B64" s="2" t="s">
         <v>6</v>
       </c>
@@ -2065,46 +2066,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="46"/>
-      <c r="B65" s="42"/>
-      <c r="C65" s="43"/>
-      <c r="D65" s="44"/>
-    </row>
-    <row r="66" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="45">
+    <row r="65" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="28"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="26"/>
+    </row>
+    <row r="66" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="27">
         <v>45079</v>
       </c>
-      <c r="B66" s="38"/>
-      <c r="C66" s="39"/>
+      <c r="B66" s="29"/>
+      <c r="C66" s="30"/>
       <c r="D66" s="4"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="34"/>
-      <c r="B67" s="40"/>
-      <c r="C67" s="41"/>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67" s="14"/>
+      <c r="B67" s="31"/>
+      <c r="C67" s="32"/>
       <c r="D67" s="5"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="34"/>
-      <c r="B68" s="40"/>
-      <c r="C68" s="41"/>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68" s="14"/>
+      <c r="B68" s="31"/>
+      <c r="C68" s="32"/>
       <c r="D68" s="5"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="34"/>
-      <c r="B69" s="40"/>
-      <c r="C69" s="41"/>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69" s="14"/>
+      <c r="B69" s="31"/>
+      <c r="C69" s="32"/>
       <c r="D69" s="5"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="34"/>
-      <c r="B70" s="40"/>
-      <c r="C70" s="41"/>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A70" s="14"/>
+      <c r="B70" s="31"/>
+      <c r="C70" s="32"/>
       <c r="D70" s="5"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="34"/>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71" s="14"/>
       <c r="B71" s="2" t="s">
         <v>6</v>
       </c>
@@ -2116,46 +2117,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="46"/>
-      <c r="B72" s="35"/>
-      <c r="C72" s="36"/>
-      <c r="D72" s="37"/>
-    </row>
-    <row r="73" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="45">
+    <row r="72" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="28"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="23"/>
+    </row>
+    <row r="73" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="27">
         <v>45082</v>
       </c>
-      <c r="B73" s="38"/>
-      <c r="C73" s="39"/>
+      <c r="B73" s="29"/>
+      <c r="C73" s="30"/>
       <c r="D73" s="4"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="34"/>
-      <c r="B74" s="40"/>
-      <c r="C74" s="41"/>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A74" s="14"/>
+      <c r="B74" s="31"/>
+      <c r="C74" s="32"/>
       <c r="D74" s="5"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="34"/>
-      <c r="B75" s="40"/>
-      <c r="C75" s="41"/>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A75" s="14"/>
+      <c r="B75" s="31"/>
+      <c r="C75" s="32"/>
       <c r="D75" s="5"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="34"/>
-      <c r="B76" s="40"/>
-      <c r="C76" s="41"/>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A76" s="14"/>
+      <c r="B76" s="31"/>
+      <c r="C76" s="32"/>
       <c r="D76" s="5"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="34"/>
-      <c r="B77" s="40"/>
-      <c r="C77" s="41"/>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A77" s="14"/>
+      <c r="B77" s="31"/>
+      <c r="C77" s="32"/>
       <c r="D77" s="5"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="34"/>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A78" s="14"/>
       <c r="B78" s="2" t="s">
         <v>6</v>
       </c>
@@ -2167,13 +2168,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="46"/>
-      <c r="B79" s="42"/>
-      <c r="C79" s="43"/>
-      <c r="D79" s="44"/>
-    </row>
-    <row r="80" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="28"/>
+      <c r="B79" s="24"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="26"/>
+    </row>
+    <row r="80" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="8"/>
       <c r="B80" s="7"/>
       <c r="C80" s="3" t="s">
@@ -2184,43 +2185,61 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="32" t="s">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A81" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B81" s="32"/>
-      <c r="C81" s="32"/>
-      <c r="D81" s="32"/>
+      <c r="B81" s="35"/>
+      <c r="C81" s="35"/>
+      <c r="D81" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="A59:A65"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="A73:A79"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A6:A14"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A15:A23"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="A38:A44"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="A66:A72"/>
     <mergeCell ref="B66:C66"/>
@@ -2237,51 +2256,33 @@
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="B51:D51"/>
     <mergeCell ref="A52:A58"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A15:A23"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="A38:A44"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A6:A14"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A73:A79"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="A59:A65"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B30:D30"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="D6:D13">

--- a/00 - Documents/3_PASCHE_Journal_2023.xlsx
+++ b/00 - Documents/3_PASCHE_Journal_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paschek7/TPI/futnetsinglemaster/00 - Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A83CBB-4F12-BD45-9393-0C6F9FA3B07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3F305E-C6A5-4D45-A8F0-4777E7DDA13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -263,6 +263,24 @@
       </rPr>
       <t>J'ai bien avancé le serveur, j'ai finis d'implémenter les requettes possibles. Il reste plus que quelque détails sur le seveur, j'ai pus avancé aussi un peux sur la documentationn</t>
     </r>
+  </si>
+  <si>
+    <t>Finition du serveur</t>
+  </si>
+  <si>
+    <t>Documentation réalisation</t>
+  </si>
+  <si>
+    <t>Implémentation client</t>
+  </si>
+  <si>
+    <t>J'ai fais quelque finition sur le serveur, je devrais quand même y retourner en fonction de ce que j'ai besoin de récupéré dans le client. J'ai commencé le login dans le client histoire que je puisse tester les fonctionnalité au plus vite.</t>
+  </si>
+  <si>
+    <t>Implémetation du login</t>
+  </si>
+  <si>
+    <t>0.5</t>
   </si>
 </sst>
 </file>
@@ -683,6 +701,46 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -691,144 +749,104 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1445,8 +1463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="211" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="135" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55:C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1460,89 +1478,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="36" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="37"/>
-      <c r="G1" s="17" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="17"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="52"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="10">
         <v>145341</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="45"/>
-      <c r="G2" s="40" t="s">
+      <c r="F2" s="39"/>
+      <c r="G2" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="40"/>
+      <c r="H2" s="34"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="41" t="s">
+      <c r="F3" s="27"/>
+      <c r="G3" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="41"/>
+      <c r="H3" s="35"/>
     </row>
     <row r="4" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="48"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="42" t="s">
+      <c r="F4" s="21"/>
+      <c r="G4" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="43"/>
+      <c r="H4" s="37"/>
     </row>
     <row r="5" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="50"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="16"/>
+      <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="13">
+      <c r="A6" s="24">
         <v>45068</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="39"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="4">
         <v>0.5</v>
       </c>
@@ -1551,67 +1569,67 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="14"/>
-      <c r="B7" s="38" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="39"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="14"/>
-      <c r="B8" s="18" t="s">
+      <c r="A8" s="25"/>
+      <c r="B8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="19"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="14"/>
-      <c r="B9" s="38" t="s">
+      <c r="A9" s="25"/>
+      <c r="B9" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="39"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="14"/>
-      <c r="B10" s="38" t="s">
+      <c r="A10" s="25"/>
+      <c r="B10" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="39"/>
+      <c r="C10" s="21"/>
       <c r="D10" s="5">
         <v>2.5</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="14"/>
-      <c r="B11" s="36" t="s">
+      <c r="A11" s="25"/>
+      <c r="B11" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="37"/>
+      <c r="C11" s="32"/>
       <c r="D11" s="5">
         <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="14"/>
-      <c r="B12" s="36" t="s">
+      <c r="A12" s="25"/>
+      <c r="B12" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="37"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="5">
         <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="14"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="2" t="s">
         <v>6</v>
       </c>
@@ -1624,87 +1642,87 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="21" t="s">
+      <c r="A14" s="25"/>
+      <c r="B14" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="30"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="13">
+      <c r="A15" s="24">
         <v>45069</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="37"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="4">
         <v>0.25</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="14"/>
-      <c r="B16" s="38" t="s">
+      <c r="A16" s="25"/>
+      <c r="B16" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="39"/>
+      <c r="C16" s="21"/>
       <c r="D16" s="5">
         <v>0.75</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="14"/>
-      <c r="B17" s="38" t="s">
+      <c r="A17" s="25"/>
+      <c r="B17" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="39"/>
+      <c r="C17" s="21"/>
       <c r="D17" s="5">
         <v>1.5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="14"/>
-      <c r="B18" s="38" t="s">
+      <c r="A18" s="25"/>
+      <c r="B18" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="39"/>
+      <c r="C18" s="21"/>
       <c r="D18" s="5">
         <v>1.5</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="14"/>
-      <c r="B19" s="18" t="s">
+      <c r="A19" s="25"/>
+      <c r="B19" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="19"/>
+      <c r="C19" s="27"/>
       <c r="D19" s="5">
         <v>1.5</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15" t="s">
+      <c r="A20" s="25"/>
+      <c r="B20" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="16"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="5">
         <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15" t="s">
+      <c r="A21" s="25"/>
+      <c r="B21" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="16"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="14"/>
+      <c r="A22" s="25"/>
       <c r="B22" s="2" t="s">
         <v>6</v>
       </c>
@@ -1717,67 +1735,67 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="21" t="s">
+      <c r="A23" s="25"/>
+      <c r="B23" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="23"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="30"/>
     </row>
     <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="13">
+      <c r="A24" s="24">
         <v>45070</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="16"/>
+      <c r="C24" s="14"/>
       <c r="D24" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15" t="s">
+      <c r="A25" s="25"/>
+      <c r="B25" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="16"/>
+      <c r="C25" s="14"/>
       <c r="D25" s="5">
         <v>1.5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="14"/>
-      <c r="B26" s="17" t="s">
+      <c r="A26" s="25"/>
+      <c r="B26" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="33"/>
       <c r="D26" s="5">
         <v>0.5</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="14"/>
-      <c r="B27" s="18" t="s">
+      <c r="A27" s="25"/>
+      <c r="B27" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="19"/>
+      <c r="C27" s="27"/>
       <c r="D27" s="5">
         <v>1.5</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="14"/>
-      <c r="B28" s="20" t="s">
+      <c r="A28" s="25"/>
+      <c r="B28" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="17"/>
+      <c r="C28" s="33"/>
       <c r="D28" s="5">
         <v>3.5</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="14"/>
+      <c r="A29" s="25"/>
       <c r="B29" s="2" t="s">
         <v>6</v>
       </c>
@@ -1790,55 +1808,55 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
-      <c r="B30" s="21" t="s">
+      <c r="A30" s="25"/>
+      <c r="B30" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="23"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="30"/>
     </row>
     <row r="31" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="13">
+      <c r="A31" s="24">
         <v>45071</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="17"/>
+      <c r="C31" s="33"/>
       <c r="D31" s="4">
         <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="14"/>
-      <c r="B32" s="18" t="s">
+      <c r="A32" s="25"/>
+      <c r="B32" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="19"/>
+      <c r="C32" s="27"/>
       <c r="D32" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="14"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="32"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="42"/>
       <c r="D33" s="5"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="14"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="32"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="42"/>
       <c r="D34" s="5"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="14"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="32"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="42"/>
       <c r="D35" s="5"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="14"/>
+      <c r="A36" s="25"/>
       <c r="B36" s="2" t="s">
         <v>6</v>
       </c>
@@ -1851,55 +1869,55 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
-      <c r="B37" s="24" t="s">
+      <c r="A37" s="25"/>
+      <c r="B37" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="25"/>
-      <c r="D37" s="26"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="45"/>
     </row>
     <row r="38" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="13">
+      <c r="A38" s="24">
         <v>45072</v>
       </c>
-      <c r="B38" s="34" t="s">
+      <c r="B38" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="17"/>
+      <c r="C38" s="33"/>
       <c r="D38" s="4">
         <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="14"/>
-      <c r="B39" s="18" t="s">
+      <c r="A39" s="25"/>
+      <c r="B39" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="19"/>
+      <c r="C39" s="27"/>
       <c r="D39" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="14"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="32"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="42"/>
       <c r="D40" s="5"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="14"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="32"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="42"/>
       <c r="D41" s="5"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="14"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="32"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="42"/>
       <c r="D42" s="5"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="14"/>
+      <c r="A43" s="25"/>
       <c r="B43" s="2" t="s">
         <v>6</v>
       </c>
@@ -1912,47 +1930,59 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="14"/>
-      <c r="B44" s="33" t="s">
+      <c r="A44" s="25"/>
+      <c r="B44" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="25"/>
-      <c r="D44" s="26"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="45"/>
     </row>
     <row r="45" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="27">
+      <c r="A45" s="48">
         <v>45076</v>
       </c>
-      <c r="B45" s="29"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="4"/>
+      <c r="B45" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="33"/>
+      <c r="D45" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="14"/>
-      <c r="B46" s="31"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="5"/>
+      <c r="A46" s="25"/>
+      <c r="B46" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="27"/>
+      <c r="D46" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="14"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="5"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="33"/>
+      <c r="D47" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="14"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="32"/>
+      <c r="A48" s="25"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="42"/>
       <c r="D48" s="5"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="14"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="32"/>
+      <c r="A49" s="25"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="42"/>
       <c r="D49" s="5"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="14"/>
+      <c r="A50" s="25"/>
       <c r="B50" s="2" t="s">
         <v>6</v>
       </c>
@@ -1961,49 +1991,61 @@
       </c>
       <c r="D50" s="6">
         <f>SUM(D45:D49)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="28"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="26"/>
+      <c r="A51" s="49"/>
+      <c r="B51" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" s="44"/>
+      <c r="D51" s="45"/>
     </row>
     <row r="52" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="27">
+      <c r="A52" s="48">
         <v>45077</v>
       </c>
-      <c r="B52" s="29"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="4"/>
+      <c r="B52" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="33"/>
+      <c r="D52" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="14"/>
-      <c r="B53" s="31"/>
+      <c r="A53" s="25"/>
+      <c r="B53" s="31" t="s">
+        <v>24</v>
+      </c>
       <c r="C53" s="32"/>
-      <c r="D53" s="5"/>
+      <c r="D53" s="5" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="14"/>
-      <c r="B54" s="31"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="31" t="s">
+        <v>10</v>
+      </c>
       <c r="C54" s="32"/>
       <c r="D54" s="5"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="14"/>
-      <c r="B55" s="31"/>
-      <c r="C55" s="32"/>
+      <c r="A55" s="25"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="42"/>
       <c r="D55" s="5"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="14"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="32"/>
+      <c r="A56" s="25"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="42"/>
       <c r="D56" s="5"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="14"/>
+      <c r="A57" s="25"/>
       <c r="B57" s="2" t="s">
         <v>6</v>
       </c>
@@ -2012,49 +2054,49 @@
       </c>
       <c r="D57" s="6">
         <f>SUM(D52:D56)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="28"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="26"/>
+      <c r="A58" s="49"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="45"/>
     </row>
     <row r="59" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="27">
+      <c r="A59" s="48">
         <v>45078</v>
       </c>
-      <c r="B59" s="29"/>
-      <c r="C59" s="30"/>
+      <c r="B59" s="50"/>
+      <c r="C59" s="51"/>
       <c r="D59" s="4"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60" s="14"/>
-      <c r="B60" s="31"/>
-      <c r="C60" s="32"/>
+      <c r="A60" s="25"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="42"/>
       <c r="D60" s="5"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A61" s="14"/>
-      <c r="B61" s="31"/>
-      <c r="C61" s="32"/>
+      <c r="A61" s="25"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="42"/>
       <c r="D61" s="5"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A62" s="14"/>
-      <c r="B62" s="31"/>
-      <c r="C62" s="32"/>
+      <c r="A62" s="25"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="42"/>
       <c r="D62" s="5"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A63" s="14"/>
-      <c r="B63" s="31"/>
-      <c r="C63" s="32"/>
+      <c r="A63" s="25"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="42"/>
       <c r="D63" s="5"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="14"/>
+      <c r="A64" s="25"/>
       <c r="B64" s="2" t="s">
         <v>6</v>
       </c>
@@ -2067,45 +2109,45 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="28"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="26"/>
+      <c r="A65" s="49"/>
+      <c r="B65" s="43"/>
+      <c r="C65" s="44"/>
+      <c r="D65" s="45"/>
     </row>
     <row r="66" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="27">
+      <c r="A66" s="48">
         <v>45079</v>
       </c>
-      <c r="B66" s="29"/>
-      <c r="C66" s="30"/>
+      <c r="B66" s="50"/>
+      <c r="C66" s="51"/>
       <c r="D66" s="4"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="14"/>
-      <c r="B67" s="31"/>
-      <c r="C67" s="32"/>
+      <c r="A67" s="25"/>
+      <c r="B67" s="41"/>
+      <c r="C67" s="42"/>
       <c r="D67" s="5"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A68" s="14"/>
-      <c r="B68" s="31"/>
-      <c r="C68" s="32"/>
+      <c r="A68" s="25"/>
+      <c r="B68" s="41"/>
+      <c r="C68" s="42"/>
       <c r="D68" s="5"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A69" s="14"/>
-      <c r="B69" s="31"/>
-      <c r="C69" s="32"/>
+      <c r="A69" s="25"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="42"/>
       <c r="D69" s="5"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A70" s="14"/>
-      <c r="B70" s="31"/>
-      <c r="C70" s="32"/>
+      <c r="A70" s="25"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="42"/>
       <c r="D70" s="5"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A71" s="14"/>
+      <c r="A71" s="25"/>
       <c r="B71" s="2" t="s">
         <v>6</v>
       </c>
@@ -2118,45 +2160,45 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="28"/>
-      <c r="B72" s="21"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="23"/>
+      <c r="A72" s="49"/>
+      <c r="B72" s="28"/>
+      <c r="C72" s="29"/>
+      <c r="D72" s="30"/>
     </row>
     <row r="73" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="27">
+      <c r="A73" s="48">
         <v>45082</v>
       </c>
-      <c r="B73" s="29"/>
-      <c r="C73" s="30"/>
+      <c r="B73" s="50"/>
+      <c r="C73" s="51"/>
       <c r="D73" s="4"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A74" s="14"/>
-      <c r="B74" s="31"/>
-      <c r="C74" s="32"/>
+      <c r="A74" s="25"/>
+      <c r="B74" s="41"/>
+      <c r="C74" s="42"/>
       <c r="D74" s="5"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" s="14"/>
-      <c r="B75" s="31"/>
-      <c r="C75" s="32"/>
+      <c r="A75" s="25"/>
+      <c r="B75" s="41"/>
+      <c r="C75" s="42"/>
       <c r="D75" s="5"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A76" s="14"/>
-      <c r="B76" s="31"/>
-      <c r="C76" s="32"/>
+      <c r="A76" s="25"/>
+      <c r="B76" s="41"/>
+      <c r="C76" s="42"/>
       <c r="D76" s="5"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="14"/>
-      <c r="B77" s="31"/>
-      <c r="C77" s="32"/>
+      <c r="A77" s="25"/>
+      <c r="B77" s="41"/>
+      <c r="C77" s="42"/>
       <c r="D77" s="5"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A78" s="14"/>
+      <c r="A78" s="25"/>
       <c r="B78" s="2" t="s">
         <v>6</v>
       </c>
@@ -2169,10 +2211,10 @@
       </c>
     </row>
     <row r="79" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="28"/>
-      <c r="B79" s="24"/>
-      <c r="C79" s="25"/>
-      <c r="D79" s="26"/>
+      <c r="A79" s="49"/>
+      <c r="B79" s="43"/>
+      <c r="C79" s="44"/>
+      <c r="D79" s="45"/>
     </row>
     <row r="80" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="8"/>
@@ -2186,15 +2228,87 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A81" s="35" t="s">
+      <c r="A81" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B81" s="35"/>
-      <c r="C81" s="35"/>
-      <c r="D81" s="35"/>
+      <c r="B81" s="40"/>
+      <c r="C81" s="40"/>
+      <c r="D81" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="88">
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="A59:A65"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="A73:A79"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="A66:A72"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="A45:A51"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A52:A58"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A15:A23"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="A38:A44"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="E5:F5"/>
@@ -2211,78 +2325,6 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A15:A23"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="A38:A44"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="A66:A72"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="A45:A51"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A52:A58"/>
-    <mergeCell ref="A73:A79"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="A59:A65"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B30:D30"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="D6:D13">

--- a/00 - Documents/3_PASCHE_Journal_2023.xlsx
+++ b/00 - Documents/3_PASCHE_Journal_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paschek7/TPI/futnetsinglemaster/00 - Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3F305E-C6A5-4D45-A8F0-4777E7DDA13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BB93EB-696F-164B-A7F4-A532A24F4600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="8" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Journal!$A$5:$HI$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Journal!$B:$D,Journal!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$D$80</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$D$84</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="61">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -161,9 +161,6 @@
   </si>
   <si>
     <t>Documentation Conception</t>
-  </si>
-  <si>
-    <t>Implémenter les services REST</t>
   </si>
   <si>
     <t>Documentaion réalisation</t>
@@ -234,6 +231,57 @@
   </si>
   <si>
     <t>J'était toujours bloqué sur le problème 1, j'ai décider de laisser tomber pour aujoud'hui, je me suis concentré sur l'api en générale. J'ai aussi commencer a documenter la réalisation.</t>
+  </si>
+  <si>
+    <t>Finition du serveur</t>
+  </si>
+  <si>
+    <t>Documentation réalisation</t>
+  </si>
+  <si>
+    <t>J'ai fais quelque finition sur le serveur, je devrais quand même y retourner en fonction de ce que j'ai besoin de récupéré dans le client. J'ai commencé le login dans le client histoire que je puisse tester les fonctionnalité au plus vite.</t>
+  </si>
+  <si>
+    <t>Implémetation du login</t>
+  </si>
+  <si>
+    <t>Implémentation de la session (Client)</t>
+  </si>
+  <si>
+    <t>Implémentation de la récupération du classement</t>
+  </si>
+  <si>
+    <t>Implémentation client (intérface)</t>
+  </si>
+  <si>
+    <t>Implémenter les services REST (Récupéré les rencontres)</t>
+  </si>
+  <si>
+    <t>Implémenter les services REST (Récupéré le classement)</t>
+  </si>
+  <si>
+    <t>Implémenter les services REST (Supprimer une rencontre)</t>
+  </si>
+  <si>
+    <t>Implémenter les services REST (Modifier une rencontre)</t>
+  </si>
+  <si>
+    <t>Implémenter les services REST (Ajout d'utilisateur)</t>
+  </si>
+  <si>
+    <t>Implémenter les services REST (modifier un utilisateur)</t>
+  </si>
+  <si>
+    <t>Implémenter les services REST (Récupéré les utilisateurs)</t>
+  </si>
+  <si>
+    <t>Implémenter les services REST (supprimer un utilisateur)</t>
+  </si>
+  <si>
+    <t>Implémenter les services REST (ajouteur une rencontre)</t>
+  </si>
+  <si>
+    <t>Implémenter les services REST (valider une rencontre)</t>
   </si>
   <si>
     <r>
@@ -261,26 +309,11 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>J'ai bien avancé le serveur, j'ai finis d'implémenter les requettes possibles. Il reste plus que quelque détails sur le seveur, j'ai pus avancé aussi un peux sur la documentationn</t>
+      <t>J'ai bien avancé le serveur, j'ai finis d'implémenter les requettes possibles. Il reste plus que quelque détails sur le seveur, j'ai pus avancé aussi un peux sur la documentation.</t>
     </r>
   </si>
   <si>
-    <t>Finition du serveur</t>
-  </si>
-  <si>
-    <t>Documentation réalisation</t>
-  </si>
-  <si>
-    <t>Implémentation client</t>
-  </si>
-  <si>
-    <t>J'ai fais quelque finition sur le serveur, je devrais quand même y retourner en fonction de ce que j'ai besoin de récupéré dans le client. J'ai commencé le login dans le client histoire que je puisse tester les fonctionnalité au plus vite.</t>
-  </si>
-  <si>
-    <t>Implémetation du login</t>
-  </si>
-  <si>
-    <t>0.5</t>
+    <t>J'ai bien avancé sur la partie cliente, je pense que j'ai réussi le plus dur, il me reste plus qu'as faire la gestion de rencontre et d'utilisateur. J'ai également eu la revue de projet, ça c'est bien passé.</t>
   </si>
 </sst>
 </file>
@@ -852,51 +885,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <font>
         <strike val="0"/>
@@ -1461,10 +1450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="135" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55:C55"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="185" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66:C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1644,7 +1633,7 @@
     <row r="14" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="25"/>
       <c r="B14" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="29"/>
       <c r="D14" s="30"/>
@@ -1737,7 +1726,7 @@
     <row r="23" spans="1:4" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="25"/>
       <c r="B23" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="29"/>
       <c r="D23" s="30"/>
@@ -1787,7 +1776,7 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="25"/>
       <c r="B28" s="52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C28" s="33"/>
       <c r="D28" s="5">
@@ -1810,7 +1799,7 @@
     <row r="30" spans="1:4" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="25"/>
       <c r="B30" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30" s="29"/>
       <c r="D30" s="30"/>
@@ -1820,307 +1809,350 @@
         <v>45071</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C31" s="33"/>
       <c r="D31" s="4">
-        <v>6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="25"/>
-      <c r="B32" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="27"/>
+      <c r="B32" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="33"/>
       <c r="D32" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="25"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="5"/>
+      <c r="B33" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="33"/>
+      <c r="D33" s="5">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="25"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="5"/>
+      <c r="B34" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="33"/>
+      <c r="D34" s="5">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="25"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="5"/>
+      <c r="B35" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="33"/>
+      <c r="D35" s="5">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="25"/>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="33"/>
+      <c r="D36" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="25"/>
+      <c r="B37" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="27"/>
+      <c r="D37" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="25"/>
+      <c r="B38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C38" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="6">
-        <f>SUM(D31:D35)</f>
+      <c r="D38" s="6">
+        <f>SUM(D31:D37)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="25"/>
-      <c r="B37" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="44"/>
-      <c r="D37" s="45"/>
-    </row>
-    <row r="38" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="24">
+    <row r="39" spans="1:4" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="25"/>
+      <c r="B39" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="44"/>
+      <c r="D39" s="45"/>
+    </row>
+    <row r="40" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="24">
         <v>45072</v>
       </c>
-      <c r="B38" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="33"/>
-      <c r="D38" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="25"/>
-      <c r="B39" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" s="27"/>
-      <c r="D39" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="25"/>
-      <c r="B40" s="41"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="5"/>
+      <c r="B40" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="33"/>
+      <c r="D40" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="25"/>
-      <c r="B41" s="41"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="5"/>
+      <c r="B41" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="33"/>
+      <c r="D41" s="5">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="25"/>
-      <c r="B42" s="41"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="5"/>
+      <c r="B42" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="33"/>
+      <c r="D42" s="5">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="25"/>
-      <c r="B43" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="6">
-        <f>SUM(D38:D42)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="33"/>
+      <c r="D43" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="25"/>
-      <c r="B44" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" s="44"/>
-      <c r="D44" s="45"/>
-    </row>
-    <row r="45" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="48">
-        <v>45076</v>
-      </c>
-      <c r="B45" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" s="33"/>
-      <c r="D45" s="4">
-        <v>2</v>
+      <c r="B44" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="33"/>
+      <c r="D44" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" s="25"/>
+      <c r="B45" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="27"/>
+      <c r="D45" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="25"/>
-      <c r="B46" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46" s="27"/>
-      <c r="D46" s="5">
+      <c r="B46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="6">
+        <f>SUM(D40:D45)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="25"/>
+      <c r="B47" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="44"/>
+      <c r="D47" s="45"/>
+    </row>
+    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="48">
+        <v>45076</v>
+      </c>
+      <c r="B48" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C48" s="33"/>
+      <c r="D48" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="25"/>
-      <c r="B47" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="C47" s="33"/>
-      <c r="D47" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="25"/>
-      <c r="B48" s="41"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="5"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="25"/>
-      <c r="B49" s="41"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="5"/>
+      <c r="B49" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" s="27"/>
+      <c r="D49" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="25"/>
-      <c r="B50" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" s="6">
-        <f>SUM(D45:D49)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="49"/>
-      <c r="B51" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="C51" s="44"/>
-      <c r="D51" s="45"/>
-    </row>
-    <row r="52" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="48">
-        <v>45077</v>
-      </c>
-      <c r="B52" s="33" t="s">
+      <c r="B50" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C52" s="33"/>
-      <c r="D52" s="4">
-        <v>2</v>
-      </c>
+      <c r="C50" s="33"/>
+      <c r="D50" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" s="25"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="5"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" s="25"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="5"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="25"/>
-      <c r="B53" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="C53" s="32"/>
-      <c r="D53" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="25"/>
-      <c r="B54" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C54" s="32"/>
-      <c r="D54" s="5"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="25"/>
-      <c r="B55" s="41"/>
-      <c r="C55" s="42"/>
-      <c r="D55" s="5"/>
+      <c r="B53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="6">
+        <f>SUM(D48:D52)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="49"/>
+      <c r="B54" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" s="44"/>
+      <c r="D54" s="45"/>
+    </row>
+    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="48">
+        <v>45077</v>
+      </c>
+      <c r="B55" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55" s="33"/>
+      <c r="D55" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="25"/>
-      <c r="B56" s="41"/>
-      <c r="C56" s="42"/>
-      <c r="D56" s="5"/>
+      <c r="B56" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" s="32"/>
+      <c r="D56" s="5">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="25"/>
-      <c r="B57" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D57" s="6">
-        <f>SUM(D52:D56)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="49"/>
-      <c r="B58" s="43"/>
-      <c r="C58" s="44"/>
-      <c r="D58" s="45"/>
-    </row>
-    <row r="59" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="48">
-        <v>45078</v>
-      </c>
-      <c r="B59" s="50"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="4"/>
+      <c r="B57" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="32"/>
+      <c r="D57" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" s="25"/>
+      <c r="B58" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58" s="33"/>
+      <c r="D58" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" s="25"/>
+      <c r="B59" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C59" s="27"/>
+      <c r="D59" s="5">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="25"/>
-      <c r="B60" s="41"/>
-      <c r="C60" s="42"/>
-      <c r="D60" s="5"/>
+      <c r="B60" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" s="33"/>
+      <c r="D60" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" s="25"/>
-      <c r="B61" s="41"/>
-      <c r="C61" s="42"/>
-      <c r="D61" s="5"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A62" s="25"/>
-      <c r="B62" s="41"/>
-      <c r="C62" s="42"/>
-      <c r="D62" s="5"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A63" s="25"/>
-      <c r="B63" s="41"/>
-      <c r="C63" s="42"/>
-      <c r="D63" s="5"/>
+      <c r="B61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="6">
+        <f>SUM(D55:D60)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="49"/>
+      <c r="B62" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62" s="44"/>
+      <c r="D62" s="45"/>
+    </row>
+    <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="48">
+        <v>45078</v>
+      </c>
+      <c r="B63" s="50"/>
+      <c r="C63" s="51"/>
+      <c r="D63" s="4"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="25"/>
-      <c r="B64" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D64" s="6">
-        <f>SUM(D59:D63)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="49"/>
-      <c r="B65" s="43"/>
-      <c r="C65" s="44"/>
-      <c r="D65" s="45"/>
-    </row>
-    <row r="66" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="48">
-        <v>45079</v>
-      </c>
-      <c r="B66" s="50"/>
-      <c r="C66" s="51"/>
-      <c r="D66" s="4"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="42"/>
+      <c r="D64" s="5"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65" s="25"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="5"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66" s="25"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="5"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="25"/>
@@ -2130,48 +2162,48 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="25"/>
-      <c r="B68" s="41"/>
-      <c r="C68" s="42"/>
-      <c r="D68" s="5"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A69" s="25"/>
-      <c r="B69" s="41"/>
-      <c r="C69" s="42"/>
-      <c r="D69" s="5"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A70" s="25"/>
-      <c r="B70" s="41"/>
-      <c r="C70" s="42"/>
-      <c r="D70" s="5"/>
+      <c r="B68" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="6">
+        <f>SUM(D63:D67)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="49"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="45"/>
+    </row>
+    <row r="70" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="48">
+        <v>45079</v>
+      </c>
+      <c r="B70" s="50"/>
+      <c r="C70" s="51"/>
+      <c r="D70" s="4"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" s="25"/>
-      <c r="B71" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D71" s="6">
-        <f>SUM(D66:D70)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="49"/>
-      <c r="B72" s="28"/>
-      <c r="C72" s="29"/>
-      <c r="D72" s="30"/>
-    </row>
-    <row r="73" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="48">
-        <v>45082</v>
-      </c>
-      <c r="B73" s="50"/>
-      <c r="C73" s="51"/>
-      <c r="D73" s="4"/>
+      <c r="B71" s="41"/>
+      <c r="C71" s="42"/>
+      <c r="D71" s="5"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72" s="25"/>
+      <c r="B72" s="41"/>
+      <c r="C72" s="42"/>
+      <c r="D72" s="5"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A73" s="25"/>
+      <c r="B73" s="41"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="5"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="25"/>
@@ -2181,62 +2213,97 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" s="25"/>
-      <c r="B75" s="41"/>
-      <c r="C75" s="42"/>
-      <c r="D75" s="5"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A76" s="25"/>
-      <c r="B76" s="41"/>
-      <c r="C76" s="42"/>
-      <c r="D76" s="5"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="25"/>
-      <c r="B77" s="41"/>
-      <c r="C77" s="42"/>
-      <c r="D77" s="5"/>
+      <c r="B75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" s="6">
+        <f>SUM(D70:D74)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="49"/>
+      <c r="B76" s="28"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="30"/>
+    </row>
+    <row r="77" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="48">
+        <v>45082</v>
+      </c>
+      <c r="B77" s="50"/>
+      <c r="C77" s="51"/>
+      <c r="D77" s="4"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" s="25"/>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="41"/>
+      <c r="C78" s="42"/>
+      <c r="D78" s="5"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79" s="25"/>
+      <c r="B79" s="41"/>
+      <c r="C79" s="42"/>
+      <c r="D79" s="5"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80" s="25"/>
+      <c r="B80" s="41"/>
+      <c r="C80" s="42"/>
+      <c r="D80" s="5"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A81" s="25"/>
+      <c r="B81" s="41"/>
+      <c r="C81" s="42"/>
+      <c r="D81" s="5"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A82" s="25"/>
+      <c r="B82" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C82" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D78" s="6">
-        <f>SUM(D73:D77)</f>
+      <c r="D82" s="6">
+        <f>SUM(D77:D81)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="49"/>
-      <c r="B79" s="43"/>
-      <c r="C79" s="44"/>
-      <c r="D79" s="45"/>
-    </row>
-    <row r="80" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="8"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="3" t="s">
+    <row r="83" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="49"/>
+      <c r="B83" s="43"/>
+      <c r="C83" s="44"/>
+      <c r="D83" s="45"/>
+    </row>
+    <row r="84" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="8"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D80" s="9" t="e">
-        <f>D13+D22+D29+D36+D43+D50+D57+D64+D71+D78+#REF!</f>
+      <c r="D84" s="9" t="e">
+        <f>D13+D22+D29+D38+D46+D53+D61+D68+D75+D82+#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A81" s="40" t="s">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A85" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B81" s="40"/>
-      <c r="C81" s="40"/>
-      <c r="D81" s="40"/>
+      <c r="B85" s="40"/>
+      <c r="C85" s="40"/>
+      <c r="D85" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="88">
+  <mergeCells count="92">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="A24:A30"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
@@ -2244,48 +2311,50 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="A59:A65"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="A63:A69"/>
     <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B69:D69"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="B56:C56"/>
-    <mergeCell ref="A73:A79"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="A77:A83"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
     <mergeCell ref="B73:C73"/>
     <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="A66:A72"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="A45:A51"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="A48:A54"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A52:A58"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A55:A62"/>
     <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B44:C44"/>
     <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A85:D85"/>
     <mergeCell ref="A15:A23"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
@@ -2293,14 +2362,14 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B23:D23"/>
-    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="A31:A39"/>
     <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B37:C37"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="A38:A44"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="A40:A47"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G3:H3"/>
@@ -2327,76 +2396,60 @@
     <mergeCell ref="B7:C7"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
-  <conditionalFormatting sqref="D6:D13">
-    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="Terminé">
+  <conditionalFormatting sqref="D6:D13 D40:D46 D31:D38">
+    <cfRule type="containsText" dxfId="17" priority="23" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="24" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="16" priority="24" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:D22">
-    <cfRule type="containsText" dxfId="19" priority="21" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="15" priority="21" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="22" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="14" priority="22" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D15)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D36">
-    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D31)))</formula>
+  <conditionalFormatting sqref="D70:D75">
+    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D70)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D31)))</formula>
+    <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D70)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38:D43">
-    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D38)))</formula>
+  <conditionalFormatting sqref="D77:D82">
+    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D77)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D38)))</formula>
+    <cfRule type="containsText" dxfId="10" priority="14" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D77)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D66:D71">
-    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D66)))</formula>
+  <conditionalFormatting sqref="D48:D53">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D66)))</formula>
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D48)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D73:D78">
-    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D73)))</formula>
+  <conditionalFormatting sqref="D55:D61">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="14" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D73)))</formula>
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D55)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45:D50">
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D45)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D45)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D57">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D52)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D52)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D59:D64">
+  <conditionalFormatting sqref="D63:D68">
     <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D59)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D63)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D59)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:D29">
@@ -2407,12 +2460,12 @@
       <formula>NOT(ISERROR(SEARCH("En cours",D24)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D80">
+  <conditionalFormatting sqref="D84">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D80)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D84)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D80)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D84)))</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
@@ -2424,8 +2477,8 @@
     <oddFooter>&amp;L&amp;8&amp;F&amp;R&amp;8Page &amp;P/&amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="51" max="16383" man="1"/>
-    <brk id="80" max="3" man="1"/>
+    <brk id="54" max="16383" man="1"/>
+    <brk id="84" max="3" man="1"/>
   </rowBreaks>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>

--- a/00 - Documents/3_PASCHE_Journal_2023.xlsx
+++ b/00 - Documents/3_PASCHE_Journal_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paschek7/TPI/futnetsinglemaster/00 - Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BB93EB-696F-164B-A7F4-A532A24F4600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E16F4D7-0ED0-7342-8196-BAB3B6EBDF10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="8" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="72">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -127,9 +127,6 @@
     <t>Diagramme Use Case</t>
   </si>
   <si>
-    <t>Diagramme de séquence</t>
-  </si>
-  <si>
     <t>Préparation a la revue de projet</t>
   </si>
   <si>
@@ -161,9 +158,6 @@
   </si>
   <si>
     <t>Documentation Conception</t>
-  </si>
-  <si>
-    <t>Documentaion réalisation</t>
   </si>
   <si>
     <r>
@@ -189,26 +183,70 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Implémenter les services REST</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <t>Pour ce premier jour tous c'est plutôt bien passé, j'ai eu la première visite des experts et ça c'est bien passé. J'ai bien avancée sur l'analyse j'espère continuer sur ce rythme. J'ai finis le diagramme de use case ainsi que deux diagrammes de séquences. Il faut que je rédige un pv de la revue de projet.</t>
-  </si>
-  <si>
-    <t>Aujourd'hui j'ai réussi à finir l'analyse, j'ai aussi pus commencé la conception. J'espère commencer la réalisation demain pour prendre le plus d'avance possible sur mon programme et pour pouvoir paufinner le plus possible. J'ai corrigé le use case comme les experts me l'ont demandé et j'ai rédigé le pv.</t>
+    <t>Finition du serveur</t>
+  </si>
+  <si>
+    <t>Documentation réalisation</t>
+  </si>
+  <si>
+    <t>Implémentation de la session (Client)</t>
+  </si>
+  <si>
+    <t>Implémentation de la récupération du classement</t>
+  </si>
+  <si>
+    <t>Implémenter les services REST (Récupéré le classement)</t>
+  </si>
+  <si>
+    <t>Implémenter les services REST (Supprimer une rencontre)</t>
+  </si>
+  <si>
+    <t>Implémenter les services REST (Modifier une rencontre)</t>
+  </si>
+  <si>
+    <t>Implémenter les services REST (modifier un utilisateur)</t>
+  </si>
+  <si>
+    <t>Implémenter les services REST (Récupéré les utilisateurs)</t>
+  </si>
+  <si>
+    <t>Implémenter les services REST (supprimer un utilisateur)</t>
+  </si>
+  <si>
+    <t>Implémenter les services REST (valider une rencontre)</t>
+  </si>
+  <si>
+    <t>Implémentation de la récupération des rencontres</t>
+  </si>
+  <si>
+    <t>Implémentation de la gestion des rencontres.</t>
+  </si>
+  <si>
+    <t>Test du login et de la session</t>
+  </si>
+  <si>
+    <t>Implémentation de la récupération des utilisateurs</t>
+  </si>
+  <si>
+    <t>Implémentation de la gestion des utilisateurs</t>
+  </si>
+  <si>
+    <t>Documentation des tests</t>
+  </si>
+  <si>
+    <t>Test du login et de la session / ajout d'utilisateur / ajout de rencontre</t>
+  </si>
+  <si>
+    <t>Documentation utilisateur</t>
+  </si>
+  <si>
+    <t>Diagramme de séquences</t>
+  </si>
+  <si>
+    <t>Pour ce premier jour tous c'est plutôt bien passé, j'ai eu la première visite des experts et ça c'est bien passé. J'ai bien avancé sur l'analyse j'espère continuer sur ce rythme. J'ai fini le diagramme de use case ainsi que deux diagrammes de séquences. Il faut que je rédige un pv de la revue de projet.</t>
+  </si>
+  <si>
+    <t>Aujourd'hui j'ai réussi à finir l'analyse, j'ai aussi pus commencé la conception. J'espère commencer la réalisation demain pour prendre le plus d'avance possible sur mon programme et pour pouvoir peaufiner le plus possible. J'ai corrigé le use case comme les experts me l'ont demandé et j'ai rédigé le pv.</t>
   </si>
   <si>
     <r>
@@ -226,62 +264,23 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> J'ai sous-éstimmer l'implémentation au niveau des sessions. J'ai énormément de peine à faire fonctionner les session. J'ai finis la conception et je l'ai docummenter. J'ai documenter un maximum sur ce que j'avais déjà fait.</t>
+      <t xml:space="preserve"> J'ai sous-estimé l'implémentation au niveau des sessions. J'ai énormément de peine à faire fonctionner les sessions. J'ai fini la conception et je l'ai docummenté. J'ai documenté un maximum sur ce que j'avais déjà fait.</t>
     </r>
   </si>
   <si>
-    <t>J'était toujours bloqué sur le problème 1, j'ai décider de laisser tomber pour aujoud'hui, je me suis concentré sur l'api en générale. J'ai aussi commencer a documenter la réalisation.</t>
-  </si>
-  <si>
-    <t>Finition du serveur</t>
-  </si>
-  <si>
-    <t>Documentation réalisation</t>
-  </si>
-  <si>
-    <t>J'ai fais quelque finition sur le serveur, je devrais quand même y retourner en fonction de ce que j'ai besoin de récupéré dans le client. J'ai commencé le login dans le client histoire que je puisse tester les fonctionnalité au plus vite.</t>
-  </si>
-  <si>
-    <t>Implémetation du login</t>
-  </si>
-  <si>
-    <t>Implémentation de la session (Client)</t>
-  </si>
-  <si>
-    <t>Implémentation de la récupération du classement</t>
-  </si>
-  <si>
-    <t>Implémentation client (intérface)</t>
-  </si>
-  <si>
-    <t>Implémenter les services REST (Récupéré les rencontres)</t>
-  </si>
-  <si>
-    <t>Implémenter les services REST (Récupéré le classement)</t>
-  </si>
-  <si>
-    <t>Implémenter les services REST (Supprimer une rencontre)</t>
-  </si>
-  <si>
-    <t>Implémenter les services REST (Modifier une rencontre)</t>
-  </si>
-  <si>
-    <t>Implémenter les services REST (Ajout d'utilisateur)</t>
-  </si>
-  <si>
-    <t>Implémenter les services REST (modifier un utilisateur)</t>
-  </si>
-  <si>
-    <t>Implémenter les services REST (Récupéré les utilisateurs)</t>
-  </si>
-  <si>
-    <t>Implémenter les services REST (supprimer un utilisateur)</t>
-  </si>
-  <si>
-    <t>Implémenter les services REST (ajouteur une rencontre)</t>
-  </si>
-  <si>
-    <t>Implémenter les services REST (valider une rencontre)</t>
+    <t>Implémenter les services REST (Ajout d'utilisateurs)</t>
+  </si>
+  <si>
+    <t>Implémenter les services REST (ajouter une rencontre)</t>
+  </si>
+  <si>
+    <t>J'étais toujours bloqué sur le problème 1, j'ai décidé de laisser tomber pour aujourd'hui, je me suis concentré sur l'api en général. J'ai aussi commencé à documenter la réalisation.</t>
+  </si>
+  <si>
+    <t>Implémenter les services REST (Récupérée les rencontres)</t>
+  </si>
+  <si>
+    <t>Implémente+B40:D47r les services REST1</t>
   </si>
   <si>
     <r>
@@ -301,7 +300,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">J'étais finalement partis chercher trop loin, la solution était beaucoup plus simple que ce que je fesais.  </t>
+      <t xml:space="preserve">J'étais finalement partis chercher trop loin, la solution était beaucoup plus simple que ce que je faisais.  </t>
     </r>
     <r>
       <rPr>
@@ -309,11 +308,32 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>J'ai bien avancé le serveur, j'ai finis d'implémenter les requettes possibles. Il reste plus que quelque détails sur le seveur, j'ai pus avancé aussi un peux sur la documentation.</t>
+      <t>J'ai bien avancé le serveur, j'ai fini d'implémenter les requêtes possibles. Il reste plus que quelques détails sur le serveur, j'ai pu avancer aussi un peux sur la documentation.</t>
     </r>
   </si>
   <si>
-    <t>J'ai bien avancé sur la partie cliente, je pense que j'ai réussi le plus dur, il me reste plus qu'as faire la gestion de rencontre et d'utilisateur. J'ai également eu la revue de projet, ça c'est bien passé.</t>
+    <t>Implémentation client (interface)</t>
+  </si>
+  <si>
+    <t>J'ai faits quelque finition sur le serveur, je devrais quand même y retourner en fonction de ce que j'ai besoin de récupérer dans le client. J'ai commencé le login dans le client histoire que je puisse tester les fonctionnalités au plus vite.</t>
+  </si>
+  <si>
+    <t>Implémentation du login</t>
+  </si>
+  <si>
+    <t>J'ai bien avancé sur la partie cliente, je pense que j'ai réussi le plus dur, il me reste plus qu'a faire la gestion de rencontre et d'utilisateur. J'ai également eu la revue de projet, ça c'est bien passé.</t>
+  </si>
+  <si>
+    <t>J'ai réussi à bien rattraper le retard que j'avais pu prendre sur le serveur, j'espère ne pas rencontrer de problème sinon je risque de ne pas avoir le temps de finir. J'ai réalisé des tests mais je n'ai pas pensé à les documenter, je devrais repasser du temps dessus pour les documenter correctement.</t>
+  </si>
+  <si>
+    <t>J'ai réussi à finir la réalisation, tous les points ont été complétée. J'ai également fini la documentation des tests. Il me reste bien sur des détails dans la documentation comme dans la réalisation</t>
+  </si>
+  <si>
+    <t>Documentation générale</t>
+  </si>
+  <si>
+    <t>J'ai peaufiné les détails qu'il restait un peux partout dans la documentation, j'ai également fini la documentation utilisateur. Je suis fière de mon travail, je pense que j'ai réalisé un bon travail.</t>
   </si>
 </sst>
 </file>
@@ -324,7 +344,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -419,14 +439,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <vertAlign val="superscript"/>
-      <sz val="8"/>
-      <color rgb="FF92D050"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <vertAlign val="superscript"/>
       <sz val="8"/>
       <color rgb="FF92D050"/>
@@ -685,7 +697,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -734,12 +746,117 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -760,12 +877,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -773,113 +884,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1452,8 +1456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="185" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66:C66"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="185" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1467,89 +1471,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
       <c r="E1" s="31" t="s">
         <v>10</v>
       </c>
       <c r="F1" s="32"/>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="33"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="10">
         <v>145341</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="34" t="s">
+      <c r="F2" s="43"/>
+      <c r="G2" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="34"/>
+      <c r="H2" s="38"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="35" t="s">
+      <c r="F3" s="19"/>
+      <c r="G3" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="35"/>
+      <c r="H3" s="39"/>
     </row>
     <row r="4" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="17"/>
+      <c r="C4" s="46"/>
       <c r="D4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="36" t="s">
+      <c r="F4" s="37"/>
+      <c r="G4" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="37"/>
+      <c r="H4" s="41"/>
     </row>
     <row r="5" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="48"/>
       <c r="D5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="14"/>
+      <c r="F5" s="17"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="24">
+      <c r="A6" s="14">
         <v>45068</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="21"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="4">
         <v>0.5</v>
       </c>
@@ -1558,49 +1562,49 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="25"/>
-      <c r="B7" s="20" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="21"/>
+      <c r="C7" s="37"/>
       <c r="D7" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="25"/>
-      <c r="B8" s="26" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="27"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="25"/>
-      <c r="B9" s="20" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="21"/>
+      <c r="C9" s="37"/>
       <c r="D9" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="25"/>
-      <c r="B10" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="21"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="37"/>
       <c r="D10" s="5">
         <v>2.5</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="25"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="32"/>
       <c r="D11" s="5">
@@ -1608,7 +1612,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="25"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="31" t="s">
         <v>10</v>
       </c>
@@ -1618,7 +1622,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="25"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="2" t="s">
         <v>6</v>
       </c>
@@ -1631,19 +1635,19 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="25"/>
-      <c r="B14" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="30"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="24">
+      <c r="A15" s="14">
         <v>45069</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="32"/>
       <c r="D15" s="4">
@@ -1651,67 +1655,67 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="25"/>
-      <c r="B16" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="21"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="37"/>
       <c r="D16" s="5">
         <v>0.75</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="25"/>
-      <c r="B17" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="21"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="37"/>
       <c r="D17" s="5">
         <v>1.5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="25"/>
-      <c r="B18" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="21"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="37"/>
       <c r="D18" s="5">
         <v>1.5</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="25"/>
-      <c r="B19" s="26" t="s">
+      <c r="A19" s="15"/>
+      <c r="B19" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="27"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="5">
         <v>1.5</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="25"/>
-      <c r="B20" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="14"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="17"/>
       <c r="D20" s="5">
         <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="25"/>
-      <c r="B21" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="14"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="17"/>
       <c r="D21" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="25"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="2" t="s">
         <v>6</v>
       </c>
@@ -1724,67 +1728,67 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="25"/>
-      <c r="B23" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="30"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="23"/>
     </row>
     <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="24">
+      <c r="A24" s="14">
         <v>45070</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="14"/>
+      <c r="B24" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="17"/>
       <c r="D24" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="25"/>
-      <c r="B25" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="14"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="17"/>
       <c r="D25" s="5">
         <v>1.5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="25"/>
-      <c r="B26" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="33"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="13"/>
       <c r="D26" s="5">
         <v>0.5</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="25"/>
-      <c r="B27" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="27"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="19"/>
       <c r="D27" s="5">
         <v>1.5</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="25"/>
-      <c r="B28" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="33"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="13"/>
       <c r="D28" s="5">
         <v>3.5</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="25"/>
+      <c r="A29" s="15"/>
       <c r="B29" s="2" t="s">
         <v>6</v>
       </c>
@@ -1797,87 +1801,87 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="25"/>
-      <c r="B30" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="30"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="22"/>
+      <c r="D30" s="23"/>
     </row>
     <row r="31" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="24">
+      <c r="A31" s="14">
         <v>45071</v>
       </c>
-      <c r="B31" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="33"/>
+      <c r="B31" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="13"/>
       <c r="D31" s="4">
         <v>0.5</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="25"/>
-      <c r="B32" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="33"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="13"/>
       <c r="D32" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="25"/>
-      <c r="B33" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="33"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="13"/>
       <c r="D33" s="5">
         <v>0.5</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="25"/>
-      <c r="B34" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="33"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="13"/>
       <c r="D34" s="5">
         <v>0.5</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="25"/>
-      <c r="B35" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" s="33"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="13"/>
       <c r="D35" s="5">
         <v>2.5</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="25"/>
-      <c r="B36" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="C36" s="33"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="13"/>
       <c r="D36" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="25"/>
-      <c r="B37" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="27"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="19"/>
       <c r="D37" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="25"/>
+      <c r="A38" s="15"/>
       <c r="B38" s="2" t="s">
         <v>6</v>
       </c>
@@ -1890,77 +1894,77 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="25"/>
-      <c r="B39" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" s="44"/>
-      <c r="D39" s="45"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="25"/>
+      <c r="D39" s="26"/>
     </row>
     <row r="40" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="24">
+      <c r="A40" s="14">
         <v>45072</v>
       </c>
-      <c r="B40" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" s="33"/>
+      <c r="B40" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="13"/>
       <c r="D40" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="25"/>
-      <c r="B41" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C41" s="33"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="13"/>
       <c r="D41" s="5">
         <v>0.5</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="25"/>
-      <c r="B42" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C42" s="33"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="13"/>
       <c r="D42" s="5">
         <v>0.5</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="25"/>
-      <c r="B43" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="C43" s="33"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="13"/>
       <c r="D43" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="25"/>
-      <c r="B44" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" s="33"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="13"/>
       <c r="D44" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="25"/>
-      <c r="B45" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C45" s="27"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" s="19"/>
       <c r="D45" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="25"/>
+      <c r="A46" s="15"/>
       <c r="B46" s="2" t="s">
         <v>6</v>
       </c>
@@ -1973,59 +1977,59 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="25"/>
-      <c r="B47" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="C47" s="44"/>
-      <c r="D47" s="45"/>
+      <c r="A47" s="15"/>
+      <c r="B47" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" s="25"/>
+      <c r="D47" s="26"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="48">
+      <c r="A48" s="27">
         <v>45076</v>
       </c>
-      <c r="B48" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C48" s="33"/>
+      <c r="B48" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="13"/>
       <c r="D48" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="25"/>
-      <c r="B49" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C49" s="27"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" s="19"/>
       <c r="D49" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="25"/>
-      <c r="B50" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C50" s="33"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" s="13"/>
       <c r="D50" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="25"/>
-      <c r="B51" s="41"/>
-      <c r="C51" s="42"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="30"/>
       <c r="D51" s="5"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A52" s="25"/>
-      <c r="B52" s="41"/>
-      <c r="C52" s="42"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="30"/>
       <c r="D52" s="5"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="25"/>
+      <c r="A53" s="15"/>
       <c r="B53" s="2" t="s">
         <v>6</v>
       </c>
@@ -2038,29 +2042,29 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="49"/>
-      <c r="B54" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="C54" s="44"/>
-      <c r="D54" s="45"/>
+      <c r="A54" s="28"/>
+      <c r="B54" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" s="25"/>
+      <c r="D54" s="26"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="48">
+      <c r="A55" s="27">
         <v>45077</v>
       </c>
-      <c r="B55" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="C55" s="33"/>
+      <c r="B55" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" s="13"/>
       <c r="D55" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="25"/>
+      <c r="A56" s="15"/>
       <c r="B56" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C56" s="32"/>
       <c r="D56" s="5">
@@ -2068,7 +2072,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="25"/>
+      <c r="A57" s="15"/>
       <c r="B57" s="31" t="s">
         <v>10</v>
       </c>
@@ -2078,37 +2082,37 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58" s="25"/>
-      <c r="B58" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="C58" s="33"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58" s="13"/>
       <c r="D58" s="5">
         <v>0.5</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" s="25"/>
-      <c r="B59" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C59" s="27"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C59" s="19"/>
       <c r="D59" s="5">
         <v>1.5</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60" s="25"/>
-      <c r="B60" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="C60" s="33"/>
+      <c r="A60" s="15"/>
+      <c r="B60" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" s="13"/>
       <c r="D60" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A61" s="25"/>
+      <c r="A61" s="15"/>
       <c r="B61" s="2" t="s">
         <v>6</v>
       </c>
@@ -2121,47 +2125,67 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="49"/>
-      <c r="B62" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="C62" s="44"/>
-      <c r="D62" s="45"/>
+      <c r="A62" s="28"/>
+      <c r="B62" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C62" s="25"/>
+      <c r="D62" s="26"/>
     </row>
     <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="48">
+      <c r="A63" s="27">
         <v>45078</v>
       </c>
-      <c r="B63" s="50"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="4"/>
+      <c r="B63" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C63" s="13"/>
+      <c r="D63" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="25"/>
-      <c r="B64" s="41"/>
-      <c r="C64" s="42"/>
-      <c r="D64" s="5"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C64" s="13"/>
+      <c r="D64" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="25"/>
-      <c r="B65" s="41"/>
-      <c r="C65" s="42"/>
-      <c r="D65" s="5"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C65" s="19"/>
+      <c r="D65" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="25"/>
-      <c r="B66" s="41"/>
-      <c r="C66" s="42"/>
-      <c r="D66" s="5"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C66" s="38"/>
+      <c r="D66" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="25"/>
-      <c r="B67" s="41"/>
-      <c r="C67" s="42"/>
-      <c r="D67" s="5"/>
+      <c r="A67" s="15"/>
+      <c r="B67" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C67" s="13"/>
+      <c r="D67" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A68" s="25"/>
+      <c r="A68" s="15"/>
       <c r="B68" s="2" t="s">
         <v>6</v>
       </c>
@@ -2170,49 +2194,71 @@
       </c>
       <c r="D68" s="6">
         <f>SUM(D63:D67)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="49"/>
-      <c r="B69" s="43"/>
-      <c r="C69" s="44"/>
-      <c r="D69" s="45"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="28"/>
+      <c r="B69" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C69" s="25"/>
+      <c r="D69" s="26"/>
     </row>
     <row r="70" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="48">
+      <c r="A70" s="27">
         <v>45079</v>
       </c>
-      <c r="B70" s="50"/>
-      <c r="C70" s="51"/>
-      <c r="D70" s="4"/>
+      <c r="B70" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C70" s="13"/>
+      <c r="D70" s="4">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A71" s="25"/>
-      <c r="B71" s="41"/>
-      <c r="C71" s="42"/>
-      <c r="D71" s="5"/>
+      <c r="A71" s="15"/>
+      <c r="B71" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C71" s="13"/>
+      <c r="D71" s="5">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" s="25"/>
-      <c r="B72" s="41"/>
-      <c r="C72" s="42"/>
-      <c r="D72" s="5"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C72" s="19"/>
+      <c r="D72" s="5">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" s="25"/>
-      <c r="B73" s="41"/>
-      <c r="C73" s="42"/>
-      <c r="D73" s="5"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C73" s="19"/>
+      <c r="D73" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A74" s="25"/>
-      <c r="B74" s="41"/>
-      <c r="C74" s="42"/>
-      <c r="D74" s="5"/>
+      <c r="A74" s="15"/>
+      <c r="B74" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C74" s="38"/>
+      <c r="D74" s="5">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" s="25"/>
+      <c r="A75" s="15"/>
       <c r="B75" s="2" t="s">
         <v>6</v>
       </c>
@@ -2221,49 +2267,59 @@
       </c>
       <c r="D75" s="6">
         <f>SUM(D70:D74)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="49"/>
-      <c r="B76" s="28"/>
-      <c r="C76" s="29"/>
-      <c r="D76" s="30"/>
+      <c r="A76" s="28"/>
+      <c r="B76" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C76" s="22"/>
+      <c r="D76" s="23"/>
     </row>
     <row r="77" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="48">
+      <c r="A77" s="27">
         <v>45082</v>
       </c>
-      <c r="B77" s="50"/>
-      <c r="C77" s="51"/>
-      <c r="D77" s="4"/>
+      <c r="B77" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C77" s="19"/>
+      <c r="D77" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A78" s="25"/>
-      <c r="B78" s="41"/>
-      <c r="C78" s="42"/>
-      <c r="D78" s="5"/>
+      <c r="A78" s="15"/>
+      <c r="B78" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C78" s="19"/>
+      <c r="D78" s="5">
+        <v>6</v>
+      </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A79" s="25"/>
-      <c r="B79" s="41"/>
-      <c r="C79" s="42"/>
+      <c r="A79" s="15"/>
+      <c r="B79" s="29"/>
+      <c r="C79" s="30"/>
       <c r="D79" s="5"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A80" s="25"/>
-      <c r="B80" s="41"/>
-      <c r="C80" s="42"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="29"/>
+      <c r="C80" s="30"/>
       <c r="D80" s="5"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A81" s="25"/>
-      <c r="B81" s="41"/>
-      <c r="C81" s="42"/>
+      <c r="A81" s="15"/>
+      <c r="B81" s="29"/>
+      <c r="C81" s="30"/>
       <c r="D81" s="5"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A82" s="25"/>
+      <c r="A82" s="15"/>
       <c r="B82" s="2" t="s">
         <v>6</v>
       </c>
@@ -2272,14 +2328,16 @@
       </c>
       <c r="D82" s="6">
         <f>SUM(D77:D81)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="49"/>
-      <c r="B83" s="43"/>
-      <c r="C83" s="44"/>
-      <c r="D83" s="45"/>
+      <c r="A83" s="28"/>
+      <c r="B83" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C83" s="25"/>
+      <c r="D83" s="26"/>
     </row>
     <row r="84" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="8"/>
@@ -2287,51 +2345,67 @@
       <c r="C84" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D84" s="9" t="e">
-        <f>D13+D22+D29+D38+D46+D53+D61+D68+D75+D82+#REF!</f>
-        <v>#REF!</v>
+      <c r="D84" s="9">
+        <f>D13+D22+D29+D38+D46+D53+D61+D68+D75+D82</f>
+        <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A85" s="40" t="s">
+      <c r="A85" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B85" s="40"/>
-      <c r="C85" s="40"/>
-      <c r="D85" s="40"/>
+      <c r="B85" s="35"/>
+      <c r="C85" s="35"/>
+      <c r="D85" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="A63:A69"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="A77:A83"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A6:A14"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A15:A23"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="A31:A39"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="A40:A47"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B43:C43"/>
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="A70:A76"/>
     <mergeCell ref="B70:C70"/>
@@ -2348,52 +2422,36 @@
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="B54:D54"/>
     <mergeCell ref="A55:A62"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="A15:A23"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="A31:A39"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="A40:A47"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A6:A14"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A77:A83"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="A63:A69"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B30:D30"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="D6:D13 D40:D46 D31:D38">
